--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d70810b8aa74960/Documents/healthcare/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Desktop\DSHS\homework1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{47B27FBC-3B50-44BA-9111-DBCD8CAF3375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776F289B-0DDB-4A01-8326-2773D2469B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1284" yWindow="888" windowWidth="12864" windowHeight="9108" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6284" yWindow="1702" windowWidth="18851" windowHeight="9962" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aggre" sheetId="12" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="559">
   <si>
     <t>IdControlVital</t>
   </si>
@@ -1640,13 +1640,70 @@
   </si>
   <si>
     <t>How long ago did you have diabetes</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Causas</t>
+  </si>
+  <si>
+    <t>Causes</t>
+  </si>
+  <si>
+    <t>Dias</t>
+  </si>
+  <si>
+    <t>Days</t>
+  </si>
+  <si>
+    <t>Anio</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>IdHospitalizacion</t>
+  </si>
+  <si>
+    <t>Hospitalization ID</t>
+  </si>
+  <si>
+    <t>IdHistorialCitaCancelada</t>
+  </si>
+  <si>
+    <t>Cancelled Appointments ID</t>
+  </si>
+  <si>
+    <t>FechaCambio</t>
+  </si>
+  <si>
+    <t>Change Date</t>
+  </si>
+  <si>
+    <t>Asistencia</t>
+  </si>
+  <si>
+    <t>Attendance</t>
+  </si>
+  <si>
+    <t>Razon</t>
+  </si>
+  <si>
+    <t>FechaCancelacion</t>
+  </si>
+  <si>
+    <t>Cancellation Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1673,6 +1730,11 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1694,7 +1756,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1703,6 +1765,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2041,19 +2106,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292E9539-DDEC-46C1-BF61-190BF5D22634}">
-  <dimension ref="A1:B321"/>
+  <dimension ref="A1:B331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A303" workbookViewId="0">
-      <selection activeCell="B313" sqref="B313"/>
+    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
+      <selection activeCell="A322" sqref="A322:B331"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05"/>
   <cols>
     <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="109.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -2061,7 +2126,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2069,7 +2134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2077,7 +2142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2085,7 +2150,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2093,7 +2158,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2101,7 +2166,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2109,7 +2174,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2117,7 +2182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2125,7 +2190,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2133,7 +2198,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2141,7 +2206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2149,7 +2214,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2157,7 +2222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2165,7 +2230,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2173,7 +2238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2181,7 +2246,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2189,7 +2254,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2197,7 +2262,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2205,7 +2270,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2213,7 +2278,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2221,7 +2286,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2229,7 +2294,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2237,7 +2302,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2245,7 +2310,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2253,7 +2318,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2261,7 +2326,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2269,7 +2334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2277,7 +2342,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2285,7 +2350,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2293,7 +2358,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2301,7 +2366,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2309,7 +2374,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -2317,7 +2382,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2325,7 +2390,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2333,7 +2398,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2341,7 +2406,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2349,7 +2414,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2357,7 +2422,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2365,7 +2430,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2373,7 +2438,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2381,7 +2446,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2389,7 +2454,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2397,7 +2462,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2405,7 +2470,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2413,7 +2478,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2421,7 +2486,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2429,7 +2494,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2437,7 +2502,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2445,7 +2510,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -2453,7 +2518,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -2461,7 +2526,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -2469,7 +2534,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -2477,7 +2542,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -2485,7 +2550,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -2493,7 +2558,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -2501,7 +2566,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -2509,7 +2574,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>80</v>
       </c>
@@ -2517,7 +2582,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -2525,7 +2590,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -2533,7 +2598,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -2541,7 +2606,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -2549,7 +2614,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -2557,7 +2622,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2565,7 +2630,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -2573,7 +2638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -2581,7 +2646,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
         <v>89</v>
       </c>
@@ -2589,7 +2654,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -2597,7 +2662,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -2605,7 +2670,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -2613,7 +2678,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -2621,7 +2686,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>97</v>
       </c>
@@ -2629,7 +2694,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>98</v>
       </c>
@@ -2637,7 +2702,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>99</v>
       </c>
@@ -2645,7 +2710,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>100</v>
       </c>
@@ -2653,7 +2718,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -2661,7 +2726,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>102</v>
       </c>
@@ -2669,7 +2734,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>103</v>
       </c>
@@ -2677,7 +2742,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>104</v>
       </c>
@@ -2685,7 +2750,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>105</v>
       </c>
@@ -2693,7 +2758,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>106</v>
       </c>
@@ -2701,7 +2766,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>107</v>
       </c>
@@ -2709,7 +2774,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>108</v>
       </c>
@@ -2717,7 +2782,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>109</v>
       </c>
@@ -2725,7 +2790,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>110</v>
       </c>
@@ -2733,7 +2798,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>111</v>
       </c>
@@ -2741,7 +2806,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>112</v>
       </c>
@@ -2749,7 +2814,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>113</v>
       </c>
@@ -2757,7 +2822,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>114</v>
       </c>
@@ -2765,7 +2830,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>115</v>
       </c>
@@ -2773,7 +2838,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>116</v>
       </c>
@@ -2781,7 +2846,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>117</v>
       </c>
@@ -2789,7 +2854,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>118</v>
       </c>
@@ -2797,7 +2862,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>119</v>
       </c>
@@ -2805,7 +2870,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>120</v>
       </c>
@@ -2813,7 +2878,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>121</v>
       </c>
@@ -2821,7 +2886,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>122</v>
       </c>
@@ -2829,7 +2894,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>123</v>
       </c>
@@ -2837,7 +2902,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>124</v>
       </c>
@@ -2845,7 +2910,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>125</v>
       </c>
@@ -2853,7 +2918,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>126</v>
       </c>
@@ -2861,7 +2926,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>127</v>
       </c>
@@ -2869,7 +2934,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>128</v>
       </c>
@@ -2877,7 +2942,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>129</v>
       </c>
@@ -2885,7 +2950,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>130</v>
       </c>
@@ -2893,7 +2958,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>131</v>
       </c>
@@ -2901,7 +2966,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>132</v>
       </c>
@@ -2909,7 +2974,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>133</v>
       </c>
@@ -2917,7 +2982,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>134</v>
       </c>
@@ -2925,7 +2990,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>135</v>
       </c>
@@ -2933,7 +2998,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>136</v>
       </c>
@@ -2941,7 +3006,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>137</v>
       </c>
@@ -2949,7 +3014,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>138</v>
       </c>
@@ -2957,7 +3022,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>139</v>
       </c>
@@ -2965,7 +3030,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>140</v>
       </c>
@@ -2973,7 +3038,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>141</v>
       </c>
@@ -2981,7 +3046,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>142</v>
       </c>
@@ -2989,7 +3054,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>143</v>
       </c>
@@ -2997,7 +3062,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>144</v>
       </c>
@@ -3005,7 +3070,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>145</v>
       </c>
@@ -3013,7 +3078,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>146</v>
       </c>
@@ -3021,7 +3086,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>147</v>
       </c>
@@ -3029,7 +3094,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>148</v>
       </c>
@@ -3037,7 +3102,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>149</v>
       </c>
@@ -3045,7 +3110,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>150</v>
       </c>
@@ -3053,7 +3118,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>151</v>
       </c>
@@ -3061,7 +3126,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>152</v>
       </c>
@@ -3069,7 +3134,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>153</v>
       </c>
@@ -3077,7 +3142,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>154</v>
       </c>
@@ -3085,7 +3150,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>155</v>
       </c>
@@ -3093,7 +3158,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>156</v>
       </c>
@@ -3101,7 +3166,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>157</v>
       </c>
@@ -3109,7 +3174,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>158</v>
       </c>
@@ -3117,7 +3182,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>159</v>
       </c>
@@ -3125,7 +3190,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>160</v>
       </c>
@@ -3133,7 +3198,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>161</v>
       </c>
@@ -3141,7 +3206,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>162</v>
       </c>
@@ -3149,7 +3214,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>163</v>
       </c>
@@ -3157,7 +3222,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>164</v>
       </c>
@@ -3165,7 +3230,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>165</v>
       </c>
@@ -3173,7 +3238,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>166</v>
       </c>
@@ -3181,7 +3246,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>167</v>
       </c>
@@ -3189,7 +3254,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>168</v>
       </c>
@@ -3197,7 +3262,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>169</v>
       </c>
@@ -3205,7 +3270,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>170</v>
       </c>
@@ -3213,7 +3278,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>171</v>
       </c>
@@ -3221,7 +3286,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -3229,7 +3294,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -3237,7 +3302,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -3245,7 +3310,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -3253,7 +3318,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -3261,7 +3326,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -3269,7 +3334,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>172</v>
       </c>
@@ -3277,7 +3342,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>173</v>
       </c>
@@ -3285,7 +3350,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>174</v>
       </c>
@@ -3293,7 +3358,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>175</v>
       </c>
@@ -3301,7 +3366,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>176</v>
       </c>
@@ -3309,7 +3374,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>177</v>
       </c>
@@ -3317,7 +3382,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>178</v>
       </c>
@@ -3325,7 +3390,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>179</v>
       </c>
@@ -3333,7 +3398,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>180</v>
       </c>
@@ -3341,7 +3406,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>181</v>
       </c>
@@ -3349,7 +3414,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>182</v>
       </c>
@@ -3357,7 +3422,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>183</v>
       </c>
@@ -3365,7 +3430,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>184</v>
       </c>
@@ -3373,7 +3438,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>185</v>
       </c>
@@ -3381,7 +3446,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>186</v>
       </c>
@@ -3389,7 +3454,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>187</v>
       </c>
@@ -3397,7 +3462,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>188</v>
       </c>
@@ -3405,7 +3470,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>189</v>
       </c>
@@ -3413,7 +3478,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>190</v>
       </c>
@@ -3421,7 +3486,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>34</v>
       </c>
@@ -3429,7 +3494,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>35</v>
       </c>
@@ -3437,7 +3502,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -3445,7 +3510,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>12</v>
       </c>
@@ -3453,7 +3518,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>13</v>
       </c>
@@ -3461,7 +3526,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>36</v>
       </c>
@@ -3469,7 +3534,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>38</v>
       </c>
@@ -3477,7 +3542,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>39</v>
       </c>
@@ -3485,7 +3550,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>191</v>
       </c>
@@ -3493,7 +3558,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>192</v>
       </c>
@@ -3501,7 +3566,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>193</v>
       </c>
@@ -3509,7 +3574,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>194</v>
       </c>
@@ -3517,7 +3582,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>195</v>
       </c>
@@ -3525,7 +3590,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>196</v>
       </c>
@@ -3533,7 +3598,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>1</v>
       </c>
@@ -3541,7 +3606,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -3549,7 +3614,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -3557,7 +3622,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>3</v>
       </c>
@@ -3565,7 +3630,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>197</v>
       </c>
@@ -3573,7 +3638,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>198</v>
       </c>
@@ -3581,7 +3646,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>199</v>
       </c>
@@ -3589,7 +3654,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>200</v>
       </c>
@@ -3597,7 +3662,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>201</v>
       </c>
@@ -3605,7 +3670,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>202</v>
       </c>
@@ -3613,7 +3678,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>203</v>
       </c>
@@ -3621,7 +3686,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>204</v>
       </c>
@@ -3629,7 +3694,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>205</v>
       </c>
@@ -3637,7 +3702,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>206</v>
       </c>
@@ -3645,7 +3710,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>207</v>
       </c>
@@ -3653,7 +3718,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>208</v>
       </c>
@@ -3661,7 +3726,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>209</v>
       </c>
@@ -3669,7 +3734,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>210</v>
       </c>
@@ -3677,7 +3742,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>211</v>
       </c>
@@ -3685,7 +3750,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>212</v>
       </c>
@@ -3693,7 +3758,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>213</v>
       </c>
@@ -3701,7 +3766,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>214</v>
       </c>
@@ -3709,7 +3774,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>215</v>
       </c>
@@ -3717,7 +3782,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>216</v>
       </c>
@@ -3725,7 +3790,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>217</v>
       </c>
@@ -3733,7 +3798,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>218</v>
       </c>
@@ -3741,7 +3806,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>219</v>
       </c>
@@ -3749,7 +3814,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>220</v>
       </c>
@@ -3757,7 +3822,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>221</v>
       </c>
@@ -3765,7 +3830,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>222</v>
       </c>
@@ -3773,7 +3838,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>223</v>
       </c>
@@ -3781,7 +3846,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>224</v>
       </c>
@@ -3789,7 +3854,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>225</v>
       </c>
@@ -3797,7 +3862,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>226</v>
       </c>
@@ -3805,7 +3870,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>227</v>
       </c>
@@ -3813,7 +3878,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>228</v>
       </c>
@@ -3821,7 +3886,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>229</v>
       </c>
@@ -3829,7 +3894,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>230</v>
       </c>
@@ -3837,7 +3902,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>231</v>
       </c>
@@ -3845,7 +3910,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>232</v>
       </c>
@@ -3853,7 +3918,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>233</v>
       </c>
@@ -3861,7 +3926,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>234</v>
       </c>
@@ -3869,7 +3934,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>235</v>
       </c>
@@ -3877,7 +3942,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>236</v>
       </c>
@@ -3885,7 +3950,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>237</v>
       </c>
@@ -3893,7 +3958,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>238</v>
       </c>
@@ -3901,7 +3966,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>239</v>
       </c>
@@ -3909,7 +3974,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>240</v>
       </c>
@@ -3917,7 +3982,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>241</v>
       </c>
@@ -3925,7 +3990,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>242</v>
       </c>
@@ -3933,7 +3998,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>243</v>
       </c>
@@ -3941,7 +4006,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>244</v>
       </c>
@@ -3949,7 +4014,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>245</v>
       </c>
@@ -3957,7 +4022,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>246</v>
       </c>
@@ -3965,7 +4030,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>247</v>
       </c>
@@ -3973,7 +4038,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
         <v>248</v>
       </c>
@@ -3981,7 +4046,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>249</v>
       </c>
@@ -3989,7 +4054,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
         <v>250</v>
       </c>
@@ -3997,7 +4062,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>251</v>
       </c>
@@ -4005,7 +4070,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>252</v>
       </c>
@@ -4013,7 +4078,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>253</v>
       </c>
@@ -4021,7 +4086,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>254</v>
       </c>
@@ -4029,7 +4094,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
         <v>96</v>
       </c>
@@ -4037,7 +4102,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
         <v>255</v>
       </c>
@@ -4045,7 +4110,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -4053,7 +4118,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
         <v>417</v>
       </c>
@@ -4061,7 +4126,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>2</v>
       </c>
@@ -4069,7 +4134,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
         <v>3</v>
       </c>
@@ -4077,7 +4142,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>418</v>
       </c>
@@ -4085,7 +4150,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>419</v>
       </c>
@@ -4093,7 +4158,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>420</v>
       </c>
@@ -4101,7 +4166,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
         <v>421</v>
       </c>
@@ -4109,7 +4174,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -4117,7 +4182,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
         <v>422</v>
       </c>
@@ -4125,7 +4190,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
         <v>423</v>
       </c>
@@ -4133,7 +4198,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
         <v>424</v>
       </c>
@@ -4141,7 +4206,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
         <v>425</v>
       </c>
@@ -4149,7 +4214,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
         <v>426</v>
       </c>
@@ -4157,7 +4222,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
         <v>427</v>
       </c>
@@ -4165,7 +4230,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
         <v>428</v>
       </c>
@@ -4173,7 +4238,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
         <v>429</v>
       </c>
@@ -4181,7 +4246,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
         <v>430</v>
       </c>
@@ -4189,7 +4254,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
         <v>431</v>
       </c>
@@ -4197,7 +4262,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
         <v>432</v>
       </c>
@@ -4205,7 +4270,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
         <v>433</v>
       </c>
@@ -4213,7 +4278,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
         <v>434</v>
       </c>
@@ -4221,7 +4286,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
         <v>435</v>
       </c>
@@ -4229,7 +4294,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
         <v>436</v>
       </c>
@@ -4237,7 +4302,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
         <v>437</v>
       </c>
@@ -4245,7 +4310,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
         <v>438</v>
       </c>
@@ -4253,7 +4318,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
         <v>439</v>
       </c>
@@ -4261,7 +4326,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
         <v>440</v>
       </c>
@@ -4269,7 +4334,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
         <v>441</v>
       </c>
@@ -4277,7 +4342,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
         <v>442</v>
       </c>
@@ -4285,7 +4350,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
         <v>443</v>
       </c>
@@ -4293,7 +4358,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
         <v>444</v>
       </c>
@@ -4301,7 +4366,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
         <v>445</v>
       </c>
@@ -4309,7 +4374,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
         <v>446</v>
       </c>
@@ -4317,7 +4382,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
         <v>447</v>
       </c>
@@ -4325,7 +4390,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2">
       <c r="A285" t="s">
         <v>448</v>
       </c>
@@ -4333,7 +4398,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
         <v>449</v>
       </c>
@@ -4341,7 +4406,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
         <v>450</v>
       </c>
@@ -4349,7 +4414,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>451</v>
       </c>
@@ -4357,7 +4422,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>452</v>
       </c>
@@ -4365,7 +4430,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>453</v>
       </c>
@@ -4373,7 +4438,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>454</v>
       </c>
@@ -4381,7 +4446,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
         <v>455</v>
       </c>
@@ -4389,7 +4454,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
         <v>456</v>
       </c>
@@ -4397,7 +4462,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2">
       <c r="A294" t="s">
         <v>457</v>
       </c>
@@ -4405,7 +4470,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
         <v>458</v>
       </c>
@@ -4413,7 +4478,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2">
       <c r="A296" t="s">
         <v>459</v>
       </c>
@@ -4421,7 +4486,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
         <v>460</v>
       </c>
@@ -4429,7 +4494,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
         <v>96</v>
       </c>
@@ -4437,7 +4502,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2">
       <c r="A299" t="s">
         <v>461</v>
       </c>
@@ -4445,7 +4510,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2">
       <c r="A300" t="s">
         <v>462</v>
       </c>
@@ -4453,7 +4518,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2">
       <c r="A301" t="s">
         <v>463</v>
       </c>
@@ -4461,7 +4526,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2">
       <c r="A302" t="s">
         <v>500</v>
       </c>
@@ -4469,7 +4534,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2">
       <c r="A303" t="s">
         <v>502</v>
       </c>
@@ -4477,7 +4542,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2">
       <c r="A304" t="s">
         <v>504</v>
       </c>
@@ -4485,7 +4550,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2">
       <c r="A305" t="s">
         <v>506</v>
       </c>
@@ -4493,7 +4558,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2">
       <c r="A306" t="s">
         <v>509</v>
       </c>
@@ -4501,7 +4566,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2">
       <c r="A307" t="s">
         <v>511</v>
       </c>
@@ -4509,7 +4574,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2">
       <c r="A308" t="s">
         <v>513</v>
       </c>
@@ -4517,7 +4582,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2">
       <c r="A309" t="s">
         <v>514</v>
       </c>
@@ -4525,7 +4590,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2">
       <c r="A310" t="s">
         <v>516</v>
       </c>
@@ -4533,7 +4598,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2">
       <c r="A311" t="s">
         <v>518</v>
       </c>
@@ -4541,7 +4606,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2">
       <c r="A312" t="s">
         <v>521</v>
       </c>
@@ -4549,7 +4614,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2">
       <c r="A313" t="s">
         <v>522</v>
       </c>
@@ -4557,7 +4622,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2">
       <c r="A314" t="s">
         <v>524</v>
       </c>
@@ -4565,7 +4630,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2">
       <c r="A315" t="s">
         <v>526</v>
       </c>
@@ -4573,7 +4638,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2">
       <c r="A316" t="s">
         <v>528</v>
       </c>
@@ -4581,7 +4646,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2">
       <c r="A317" t="s">
         <v>531</v>
       </c>
@@ -4589,7 +4654,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2">
       <c r="A318" t="s">
         <v>532</v>
       </c>
@@ -4597,7 +4662,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2">
       <c r="A319" t="s">
         <v>534</v>
       </c>
@@ -4605,7 +4670,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2">
       <c r="A320" t="s">
         <v>536</v>
       </c>
@@ -4613,12 +4678,92 @@
         <v>537</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2">
       <c r="A321" t="s">
         <v>538</v>
       </c>
       <c r="B321" t="s">
         <v>539</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>540</v>
+      </c>
+      <c r="B322" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>542</v>
+      </c>
+      <c r="B323" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>544</v>
+      </c>
+      <c r="B324" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>546</v>
+      </c>
+      <c r="B325" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>548</v>
+      </c>
+      <c r="B326" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>550</v>
+      </c>
+      <c r="B327" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>552</v>
+      </c>
+      <c r="B328" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B329" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>556</v>
+      </c>
+      <c r="B330" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>557</v>
+      </c>
+      <c r="B331" t="s">
+        <v>558</v>
       </c>
     </row>
   </sheetData>

--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -8,19 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Desktop\DSHS\homework1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776F289B-0DDB-4A01-8326-2773D2469B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC010608-B925-4E15-9392-E3D8B0CF15DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6284" yWindow="1702" windowWidth="18851" windowHeight="9962" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13929" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aggre" sheetId="12" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Aggre!$A$1:$B$331</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="572">
   <si>
     <t>IdControlVital</t>
   </si>
@@ -1697,6 +1711,45 @@
   </si>
   <si>
     <t>Cancellation Date</t>
+  </si>
+  <si>
+    <t>ComoSeEnteroCitaAg</t>
+  </si>
+  <si>
+    <t>FechaAlta</t>
+  </si>
+  <si>
+    <t>High Date</t>
+  </si>
+  <si>
+    <t>IdAgenda</t>
+  </si>
+  <si>
+    <t>Agenda ID</t>
+  </si>
+  <si>
+    <t>IdDeteccionMA</t>
+  </si>
+  <si>
+    <t>IdDeteccionRE</t>
+  </si>
+  <si>
+    <t>IdEstatusCita</t>
+  </si>
+  <si>
+    <t>Appointment Status</t>
+  </si>
+  <si>
+    <t>Referencia</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Resultado</t>
+  </si>
+  <si>
+    <t>Outcome</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1825,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2106,11 +2170,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292E9539-DDEC-46C1-BF61-190BF5D22634}">
-  <dimension ref="A1:B331"/>
+  <dimension ref="A1:B339"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="A322" sqref="A322:B331"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05"/>
   <cols>
@@ -4766,7 +4828,74 @@
         <v>558</v>
       </c>
     </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>559</v>
+      </c>
+      <c r="B332" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>560</v>
+      </c>
+      <c r="B333" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>562</v>
+      </c>
+      <c r="B334" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>564</v>
+      </c>
+      <c r="B335" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>565</v>
+      </c>
+      <c r="B336" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>566</v>
+      </c>
+      <c r="B337" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>568</v>
+      </c>
+      <c r="B338" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>570</v>
+      </c>
+      <c r="B339" t="s">
+        <v>571</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A332:A339">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Desktop\DSHS\homework1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiyuanli/Desktop/homework1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC010608-B925-4E15-9392-E3D8B0CF15DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A43E2A-3591-F242-873E-CC41E744D485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13929" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="660" yWindow="1340" windowWidth="25380" windowHeight="13920" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aggre" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Aggre!$A$1:$B$331</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Aggre!$A$1:$B$339</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -321,9 +321,6 @@
     <t>Patient's visit area record : User id</t>
   </si>
   <si>
-    <t>Patient's visit area record : Available areas (medical, nutrition, psychologist, nursing, reception, sales, laboratory areas)</t>
-  </si>
-  <si>
     <t>IdPagoh</t>
   </si>
   <si>
@@ -1750,17 +1747,21 @@
   </si>
   <si>
     <t>Outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient's visit area record : Available areas </t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1768,13 +1769,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1787,6 +1788,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1823,7 +1831,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1850,7 +1858,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2170,14 +2178,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292E9539-DDEC-46C1-BF61-190BF5D22634}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:B339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B347" sqref="B347"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2188,7 +2199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" hidden="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2196,7 +2207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" hidden="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2204,7 +2215,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" hidden="1">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2212,7 +2223,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" hidden="1">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2220,7 +2231,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" hidden="1">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2228,7 +2239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" hidden="1">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2236,7 +2247,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" hidden="1">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2244,7 +2255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" hidden="1">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2252,7 +2263,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" hidden="1">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2260,7 +2271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" hidden="1">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2268,7 +2279,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" hidden="1">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2276,7 +2287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" hidden="1">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2284,7 +2295,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" hidden="1">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2292,7 +2303,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" hidden="1">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2300,7 +2311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" hidden="1">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2308,7 +2319,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" hidden="1">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2316,7 +2327,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" hidden="1">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2324,7 +2335,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" hidden="1">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2332,7 +2343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" hidden="1">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2340,7 +2351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" hidden="1">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2348,7 +2359,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" hidden="1">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2356,7 +2367,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" hidden="1">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2364,7 +2375,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" hidden="1">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2372,7 +2383,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" hidden="1">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2380,7 +2391,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" hidden="1">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2388,7 +2399,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" hidden="1">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2396,7 +2407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" hidden="1">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2404,7 +2415,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" hidden="1">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2412,7 +2423,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" hidden="1">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2420,7 +2431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" hidden="1">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2428,7 +2439,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" hidden="1">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2436,7 +2447,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" hidden="1">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -2444,7 +2455,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" hidden="1">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2452,7 +2463,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" hidden="1">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2460,7 +2471,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" hidden="1">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2468,7 +2479,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" hidden="1">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2476,7 +2487,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" hidden="1">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2484,7 +2495,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" hidden="1">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2492,7 +2503,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" hidden="1">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2500,7 +2511,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" hidden="1">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2508,7 +2519,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" hidden="1">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2516,7 +2527,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" hidden="1">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2524,7 +2535,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" hidden="1">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2532,7 +2543,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" hidden="1">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2540,7 +2551,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" hidden="1">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2548,7 +2559,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" hidden="1">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2556,7 +2567,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" hidden="1">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2564,7 +2575,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" hidden="1">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2572,7 +2583,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" hidden="1">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -2580,7 +2591,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" hidden="1">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -2588,7 +2599,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" hidden="1">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -2596,7 +2607,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" hidden="1">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -2604,7 +2615,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" hidden="1">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -2612,7 +2623,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" hidden="1">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -2620,7 +2631,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" hidden="1">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -2628,7 +2639,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" hidden="1">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -2644,7 +2655,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" hidden="1">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -2652,7 +2663,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" hidden="1">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -2660,7 +2671,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" hidden="1">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -2668,7 +2679,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" hidden="1">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -2676,7 +2687,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" hidden="1">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -2684,7 +2695,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" hidden="1">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2692,7 +2703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" hidden="1">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -2705,18 +2716,18 @@
         <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1">
       <c r="A67" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -2724,647 +2735,647 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" hidden="1">
       <c r="A69" t="s">
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1">
       <c r="A70" t="s">
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1">
       <c r="A71" t="s">
         <v>3</v>
       </c>
       <c r="B71" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1">
+      <c r="A72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1">
+      <c r="A73" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>97</v>
-      </c>
-      <c r="B72" t="s">
+    <row r="74" spans="1:2" hidden="1">
+      <c r="A74" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>98</v>
-      </c>
-      <c r="B73" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+    <row r="75" spans="1:2" hidden="1">
+      <c r="A75" t="s">
         <v>99</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+    <row r="76" spans="1:2" hidden="1">
+      <c r="A76" t="s">
         <v>100</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
+    <row r="77" spans="1:2" hidden="1">
+      <c r="A77" t="s">
         <v>101</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+    <row r="78" spans="1:2" hidden="1">
+      <c r="A78" t="s">
         <v>102</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
+    <row r="79" spans="1:2" hidden="1">
+      <c r="A79" t="s">
         <v>103</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
+    <row r="80" spans="1:2" hidden="1">
+      <c r="A80" t="s">
         <v>104</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
+    <row r="81" spans="1:2" hidden="1">
+      <c r="A81" t="s">
         <v>105</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B81" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
+    <row r="82" spans="1:2" hidden="1">
+      <c r="A82" t="s">
         <v>106</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B82" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
+    <row r="83" spans="1:2" hidden="1">
+      <c r="A83" t="s">
         <v>107</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+    <row r="84" spans="1:2" hidden="1">
+      <c r="A84" t="s">
         <v>108</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
+    <row r="85" spans="1:2" hidden="1">
+      <c r="A85" t="s">
         <v>109</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B85" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+    <row r="86" spans="1:2" hidden="1">
+      <c r="A86" t="s">
         <v>110</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B86" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+    <row r="87" spans="1:2" hidden="1">
+      <c r="A87" t="s">
         <v>111</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
+    <row r="88" spans="1:2" hidden="1">
+      <c r="A88" t="s">
         <v>112</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+    <row r="89" spans="1:2" hidden="1">
+      <c r="A89" t="s">
         <v>113</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
+    <row r="90" spans="1:2" hidden="1">
+      <c r="A90" t="s">
         <v>114</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
+    <row r="91" spans="1:2" hidden="1">
+      <c r="A91" t="s">
         <v>115</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B91" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
+    <row r="92" spans="1:2" hidden="1">
+      <c r="A92" t="s">
         <v>116</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B92" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
+    <row r="93" spans="1:2" hidden="1">
+      <c r="A93" t="s">
         <v>117</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B93" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
+    <row r="94" spans="1:2" hidden="1">
+      <c r="A94" t="s">
         <v>118</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B94" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+    <row r="95" spans="1:2" hidden="1">
+      <c r="A95" t="s">
         <v>119</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B95" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
+    <row r="96" spans="1:2" hidden="1">
+      <c r="A96" t="s">
         <v>120</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B96" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+    <row r="97" spans="1:2" hidden="1">
+      <c r="A97" t="s">
         <v>121</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
+    <row r="98" spans="1:2" hidden="1">
+      <c r="A98" t="s">
         <v>122</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B98" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
+    <row r="99" spans="1:2" hidden="1">
+      <c r="A99" t="s">
         <v>123</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
+    <row r="100" spans="1:2" hidden="1">
+      <c r="A100" t="s">
         <v>124</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
+    <row r="101" spans="1:2" hidden="1">
+      <c r="A101" t="s">
         <v>125</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
+    <row r="102" spans="1:2" hidden="1">
+      <c r="A102" t="s">
         <v>126</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
+    <row r="103" spans="1:2" hidden="1">
+      <c r="A103" t="s">
         <v>127</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B103" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
+    <row r="104" spans="1:2" hidden="1">
+      <c r="A104" t="s">
         <v>128</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B104" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
+    <row r="105" spans="1:2" hidden="1">
+      <c r="A105" t="s">
         <v>129</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B105" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
+    <row r="106" spans="1:2" hidden="1">
+      <c r="A106" t="s">
         <v>130</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B106" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
+    <row r="107" spans="1:2" hidden="1">
+      <c r="A107" t="s">
         <v>131</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
+    <row r="108" spans="1:2" hidden="1">
+      <c r="A108" t="s">
         <v>132</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B108" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
+    <row r="109" spans="1:2" hidden="1">
+      <c r="A109" t="s">
         <v>133</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
+    <row r="110" spans="1:2" hidden="1">
+      <c r="A110" t="s">
         <v>134</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
+    <row r="111" spans="1:2" hidden="1">
+      <c r="A111" t="s">
         <v>135</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B111" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
+    <row r="112" spans="1:2" hidden="1">
+      <c r="A112" t="s">
         <v>136</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B112" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
+    <row r="113" spans="1:2" hidden="1">
+      <c r="A113" t="s">
         <v>137</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
+    <row r="114" spans="1:2" hidden="1">
+      <c r="A114" t="s">
         <v>138</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
+    <row r="115" spans="1:2" hidden="1">
+      <c r="A115" t="s">
         <v>139</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
+    <row r="116" spans="1:2" hidden="1">
+      <c r="A116" t="s">
         <v>140</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B116" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
+    <row r="117" spans="1:2" hidden="1">
+      <c r="A117" t="s">
         <v>141</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B117" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
+    <row r="118" spans="1:2" hidden="1">
+      <c r="A118" t="s">
         <v>142</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B118" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
+    <row r="119" spans="1:2" hidden="1">
+      <c r="A119" t="s">
         <v>143</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B119" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
+    <row r="120" spans="1:2" hidden="1">
+      <c r="A120" t="s">
         <v>144</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
+    <row r="121" spans="1:2" hidden="1">
+      <c r="A121" t="s">
         <v>145</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B121" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
+    <row r="122" spans="1:2" hidden="1">
+      <c r="A122" t="s">
         <v>146</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B122" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
+    <row r="123" spans="1:2" hidden="1">
+      <c r="A123" t="s">
         <v>147</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
+    <row r="124" spans="1:2" hidden="1">
+      <c r="A124" t="s">
         <v>148</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
+    <row r="125" spans="1:2" hidden="1">
+      <c r="A125" t="s">
         <v>149</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B125" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
+    <row r="126" spans="1:2" hidden="1">
+      <c r="A126" t="s">
         <v>150</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
+    <row r="127" spans="1:2" hidden="1">
+      <c r="A127" t="s">
         <v>151</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
+    <row r="128" spans="1:2" hidden="1">
+      <c r="A128" t="s">
         <v>152</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
+    <row r="129" spans="1:2" hidden="1">
+      <c r="A129" t="s">
         <v>153</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
+    <row r="130" spans="1:2" hidden="1">
+      <c r="A130" t="s">
         <v>154</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
+    <row r="131" spans="1:2" hidden="1">
+      <c r="A131" t="s">
         <v>155</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B131" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
+    <row r="132" spans="1:2" hidden="1">
+      <c r="A132" t="s">
         <v>156</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B132" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
+    <row r="133" spans="1:2" hidden="1">
+      <c r="A133" t="s">
         <v>157</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
+    <row r="134" spans="1:2" hidden="1">
+      <c r="A134" t="s">
         <v>158</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
+    <row r="135" spans="1:2" hidden="1">
+      <c r="A135" t="s">
         <v>159</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
+    <row r="136" spans="1:2" hidden="1">
+      <c r="A136" t="s">
         <v>160</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
+    <row r="137" spans="1:2" hidden="1">
+      <c r="A137" t="s">
         <v>161</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
+    <row r="138" spans="1:2" hidden="1">
+      <c r="A138" t="s">
         <v>162</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B138" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
+    <row r="139" spans="1:2" hidden="1">
+      <c r="A139" t="s">
         <v>163</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B139" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
+    <row r="140" spans="1:2" hidden="1">
+      <c r="A140" t="s">
         <v>164</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B140" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
+    <row r="141" spans="1:2" hidden="1">
+      <c r="A141" t="s">
         <v>165</v>
       </c>
-      <c r="B140" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>166</v>
-      </c>
       <c r="B141" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" hidden="1">
+      <c r="A143" t="s">
         <v>167</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B143" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" hidden="1">
+      <c r="A144" t="s">
+        <v>168</v>
+      </c>
+      <c r="B144" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>168</v>
-      </c>
-      <c r="B143" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
+    <row r="145" spans="1:2" hidden="1">
+      <c r="A145" t="s">
         <v>169</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
+    <row r="146" spans="1:2" hidden="1">
+      <c r="A146" t="s">
         <v>170</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>171</v>
-      </c>
-      <c r="B146" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" hidden="1">
       <c r="A147" t="s">
         <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" hidden="1">
       <c r="A148" t="s">
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" hidden="1">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -3372,1527 +3383,1536 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" hidden="1">
       <c r="A150" t="s">
         <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" hidden="1">
       <c r="A151" t="s">
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" hidden="1">
       <c r="A152" t="s">
         <v>10</v>
       </c>
       <c r="B152" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" hidden="1">
+      <c r="A153" t="s">
+        <v>171</v>
+      </c>
+      <c r="B153" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
+    <row r="154" spans="1:2" hidden="1">
+      <c r="A154" t="s">
         <v>172</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
+    <row r="155" spans="1:2" hidden="1">
+      <c r="A155" t="s">
         <v>173</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
+    <row r="156" spans="1:2" hidden="1">
+      <c r="A156" t="s">
         <v>174</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
+    <row r="157" spans="1:2" hidden="1">
+      <c r="A157" t="s">
         <v>175</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B157" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
+    <row r="158" spans="1:2" hidden="1">
+      <c r="A158" t="s">
         <v>176</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B158" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
+    <row r="159" spans="1:2" hidden="1">
+      <c r="A159" t="s">
         <v>177</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
+    <row r="160" spans="1:2" hidden="1">
+      <c r="A160" t="s">
         <v>178</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
+    <row r="161" spans="1:2" hidden="1">
+      <c r="A161" t="s">
         <v>179</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
+    <row r="162" spans="1:2" hidden="1">
+      <c r="A162" t="s">
         <v>180</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
+    <row r="163" spans="1:2" hidden="1">
+      <c r="A163" t="s">
         <v>181</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B163" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
+    <row r="164" spans="1:2" hidden="1">
+      <c r="A164" t="s">
         <v>182</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B164" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
+    <row r="165" spans="1:2" hidden="1">
+      <c r="A165" t="s">
         <v>183</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B165" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
+    <row r="166" spans="1:2" hidden="1">
+      <c r="A166" t="s">
         <v>184</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
+    <row r="167" spans="1:2" hidden="1">
+      <c r="A167" t="s">
         <v>185</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B167" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
+    <row r="168" spans="1:2" hidden="1">
+      <c r="A168" t="s">
         <v>186</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B168" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
+    <row r="169" spans="1:2" hidden="1">
+      <c r="A169" t="s">
         <v>187</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B169" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
+    <row r="170" spans="1:2" hidden="1">
+      <c r="A170" t="s">
         <v>188</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
+    <row r="171" spans="1:2" hidden="1">
+      <c r="A171" t="s">
         <v>189</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
-        <v>190</v>
-      </c>
-      <c r="B171" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
+    <row r="172" spans="1:2" hidden="1">
       <c r="A172" t="s">
         <v>34</v>
       </c>
       <c r="B172" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" hidden="1">
       <c r="A173" t="s">
         <v>35</v>
       </c>
       <c r="B173" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" hidden="1">
       <c r="A174" t="s">
         <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" hidden="1">
       <c r="A175" t="s">
         <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" hidden="1">
       <c r="A176" t="s">
         <v>13</v>
       </c>
       <c r="B176" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" hidden="1">
       <c r="A177" t="s">
         <v>36</v>
       </c>
       <c r="B177" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" hidden="1">
       <c r="A178" t="s">
         <v>38</v>
       </c>
       <c r="B178" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" hidden="1">
       <c r="A179" t="s">
         <v>39</v>
       </c>
       <c r="B179" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" hidden="1">
+      <c r="A180" t="s">
+        <v>190</v>
+      </c>
+      <c r="B180" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180" t="s">
+    <row r="181" spans="1:2" hidden="1">
+      <c r="A181" t="s">
         <v>191</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B181" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181" t="s">
+    <row r="182" spans="1:2" hidden="1">
+      <c r="A182" t="s">
         <v>192</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182" t="s">
+    <row r="183" spans="1:2" hidden="1">
+      <c r="A183" t="s">
         <v>193</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183" t="s">
+    <row r="184" spans="1:2" hidden="1">
+      <c r="A184" t="s">
         <v>194</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
-      <c r="A184" t="s">
+    <row r="185" spans="1:2" hidden="1">
+      <c r="A185" t="s">
         <v>195</v>
       </c>
-      <c r="B184" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" t="s">
-        <v>196</v>
-      </c>
       <c r="B185" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" hidden="1">
       <c r="A186" t="s">
         <v>1</v>
       </c>
       <c r="B186" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" hidden="1">
       <c r="A187" t="s">
         <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" hidden="1">
       <c r="A188" t="s">
         <v>2</v>
       </c>
       <c r="B188" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" hidden="1">
       <c r="A189" t="s">
         <v>3</v>
       </c>
       <c r="B189" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" hidden="1">
       <c r="A190" t="s">
+        <v>196</v>
+      </c>
+      <c r="B190" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" hidden="1">
+      <c r="A191" t="s">
         <v>197</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B191" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
-      <c r="A191" t="s">
+    <row r="192" spans="1:2" hidden="1">
+      <c r="A192" t="s">
         <v>198</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B192" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="192" spans="1:2">
-      <c r="A192" t="s">
+    <row r="193" spans="1:2" hidden="1">
+      <c r="A193" t="s">
         <v>199</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="193" spans="1:2">
-      <c r="A193" t="s">
+    <row r="194" spans="1:2" hidden="1">
+      <c r="A194" t="s">
         <v>200</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194" t="s">
+    <row r="195" spans="1:2" hidden="1">
+      <c r="A195" t="s">
         <v>201</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195" t="s">
+    <row r="196" spans="1:2" hidden="1">
+      <c r="A196" t="s">
         <v>202</v>
       </c>
-      <c r="B195" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" t="s">
+      <c r="B196" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" hidden="1">
+      <c r="A197" t="s">
         <v>203</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
-      <c r="A197" t="s">
+    <row r="198" spans="1:2" hidden="1">
+      <c r="A198" t="s">
         <v>204</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198" t="s">
+    <row r="199" spans="1:2" hidden="1">
+      <c r="A199" t="s">
         <v>205</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
-      <c r="A199" t="s">
+    <row r="200" spans="1:2" hidden="1">
+      <c r="A200" t="s">
         <v>206</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B200" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
-      <c r="A200" t="s">
+    <row r="201" spans="1:2" hidden="1">
+      <c r="A201" t="s">
         <v>207</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201" t="s">
+    <row r="202" spans="1:2" hidden="1">
+      <c r="A202" t="s">
         <v>208</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="A202" t="s">
+    <row r="203" spans="1:2" hidden="1">
+      <c r="A203" t="s">
         <v>209</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="A203" t="s">
+    <row r="204" spans="1:2" hidden="1">
+      <c r="A204" t="s">
         <v>210</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
-      <c r="A204" t="s">
+    <row r="205" spans="1:2" hidden="1">
+      <c r="A205" t="s">
         <v>211</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B205" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="A205" t="s">
+    <row r="206" spans="1:2" hidden="1">
+      <c r="A206" t="s">
         <v>212</v>
       </c>
-      <c r="B205" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" t="s">
+      <c r="B206" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" hidden="1">
+      <c r="A207" t="s">
         <v>213</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
-      <c r="A207" t="s">
+    <row r="208" spans="1:2" hidden="1">
+      <c r="A208" t="s">
         <v>214</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B208" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="208" spans="1:2">
-      <c r="A208" t="s">
+    <row r="209" spans="1:2" hidden="1">
+      <c r="A209" t="s">
         <v>215</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B209" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
-      <c r="A209" t="s">
+    <row r="210" spans="1:2" hidden="1">
+      <c r="A210" t="s">
         <v>216</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B210" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="210" spans="1:2">
-      <c r="A210" t="s">
+    <row r="211" spans="1:2" hidden="1">
+      <c r="A211" t="s">
         <v>217</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B211" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
-      <c r="A211" t="s">
+    <row r="212" spans="1:2" hidden="1">
+      <c r="A212" t="s">
         <v>218</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B212" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
-      <c r="A212" t="s">
+    <row r="213" spans="1:2" hidden="1">
+      <c r="A213" t="s">
         <v>219</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B213" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
-      <c r="A213" t="s">
+    <row r="214" spans="1:2" hidden="1">
+      <c r="A214" t="s">
         <v>220</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B214" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
-      <c r="A214" t="s">
+    <row r="215" spans="1:2" hidden="1">
+      <c r="A215" t="s">
         <v>221</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B215" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
-      <c r="A215" t="s">
+    <row r="216" spans="1:2" hidden="1">
+      <c r="A216" t="s">
         <v>222</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B216" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216" t="s">
+    <row r="217" spans="1:2" hidden="1">
+      <c r="A217" t="s">
         <v>223</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B217" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
-      <c r="A217" t="s">
+    <row r="218" spans="1:2" hidden="1">
+      <c r="A218" t="s">
         <v>224</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B218" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
-      <c r="A218" t="s">
+    <row r="219" spans="1:2" hidden="1">
+      <c r="A219" t="s">
         <v>225</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B219" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
-      <c r="A219" t="s">
+    <row r="220" spans="1:2" hidden="1">
+      <c r="A220" t="s">
         <v>226</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B220" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
-      <c r="A220" t="s">
+    <row r="221" spans="1:2" hidden="1">
+      <c r="A221" t="s">
         <v>227</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B221" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
-      <c r="A221" t="s">
+    <row r="222" spans="1:2" hidden="1">
+      <c r="A222" t="s">
         <v>228</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B222" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
-      <c r="A222" t="s">
+    <row r="223" spans="1:2" hidden="1">
+      <c r="A223" t="s">
         <v>229</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B223" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
-      <c r="A223" t="s">
+    <row r="224" spans="1:2" hidden="1">
+      <c r="A224" t="s">
         <v>230</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B224" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
-      <c r="A224" t="s">
+    <row r="225" spans="1:2" hidden="1">
+      <c r="A225" t="s">
         <v>231</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B225" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
-      <c r="A225" t="s">
+    <row r="226" spans="1:2" hidden="1">
+      <c r="A226" t="s">
         <v>232</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B226" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" hidden="1">
+      <c r="A227" t="s">
+        <v>233</v>
+      </c>
+      <c r="B227" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" hidden="1">
+      <c r="A228" t="s">
+        <v>234</v>
+      </c>
+      <c r="B228" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" hidden="1">
+      <c r="A229" t="s">
+        <v>235</v>
+      </c>
+      <c r="B229" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" hidden="1">
+      <c r="A230" t="s">
+        <v>236</v>
+      </c>
+      <c r="B230" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" hidden="1">
+      <c r="A231" t="s">
+        <v>237</v>
+      </c>
+      <c r="B231" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" hidden="1">
+      <c r="A232" t="s">
+        <v>238</v>
+      </c>
+      <c r="B232" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" hidden="1">
+      <c r="A233" t="s">
+        <v>239</v>
+      </c>
+      <c r="B233" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
-      <c r="A226" t="s">
-        <v>233</v>
-      </c>
-      <c r="B226" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" t="s">
-        <v>234</v>
-      </c>
-      <c r="B227" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" t="s">
-        <v>235</v>
-      </c>
-      <c r="B228" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" t="s">
-        <v>236</v>
-      </c>
-      <c r="B229" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" t="s">
-        <v>237</v>
-      </c>
-      <c r="B230" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" t="s">
-        <v>238</v>
-      </c>
-      <c r="B231" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" t="s">
-        <v>239</v>
-      </c>
-      <c r="B232" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" t="s">
+    <row r="234" spans="1:2" hidden="1">
+      <c r="A234" t="s">
         <v>240</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B234" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" hidden="1">
+      <c r="A235" t="s">
+        <v>241</v>
+      </c>
+      <c r="B235" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" hidden="1">
+      <c r="A236" t="s">
+        <v>242</v>
+      </c>
+      <c r="B236" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" hidden="1">
+      <c r="A237" t="s">
+        <v>243</v>
+      </c>
+      <c r="B237" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" hidden="1">
+      <c r="A238" t="s">
+        <v>244</v>
+      </c>
+      <c r="B238" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" hidden="1">
+      <c r="A239" t="s">
+        <v>245</v>
+      </c>
+      <c r="B239" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" hidden="1">
+      <c r="A240" t="s">
+        <v>246</v>
+      </c>
+      <c r="B240" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" hidden="1">
+      <c r="A241" t="s">
+        <v>247</v>
+      </c>
+      <c r="B241" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" hidden="1">
+      <c r="A242" t="s">
+        <v>248</v>
+      </c>
+      <c r="B242" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" hidden="1">
+      <c r="A243" t="s">
+        <v>249</v>
+      </c>
+      <c r="B243" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="234" spans="1:2">
-      <c r="A234" t="s">
-        <v>241</v>
-      </c>
-      <c r="B234" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" t="s">
-        <v>242</v>
-      </c>
-      <c r="B235" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" t="s">
-        <v>243</v>
-      </c>
-      <c r="B236" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" t="s">
-        <v>244</v>
-      </c>
-      <c r="B237" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" t="s">
-        <v>245</v>
-      </c>
-      <c r="B238" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
-        <v>246</v>
-      </c>
-      <c r="B239" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" t="s">
-        <v>247</v>
-      </c>
-      <c r="B240" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="s">
-        <v>248</v>
-      </c>
-      <c r="B241" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" t="s">
-        <v>249</v>
-      </c>
-      <c r="B242" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="s">
+    <row r="244" spans="1:2" hidden="1">
+      <c r="A244" t="s">
         <v>250</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B244" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="s">
+    <row r="245" spans="1:2" hidden="1">
+      <c r="A245" t="s">
         <v>251</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B245" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="245" spans="1:2">
-      <c r="A245" t="s">
+    <row r="246" spans="1:2" hidden="1">
+      <c r="A246" t="s">
         <v>252</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B246" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="246" spans="1:2">
-      <c r="A246" t="s">
+    <row r="247" spans="1:2" hidden="1">
+      <c r="A247" t="s">
         <v>253</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B247" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="247" spans="1:2">
-      <c r="A247" t="s">
+    <row r="248" spans="1:2" hidden="1">
+      <c r="A248" t="s">
+        <v>95</v>
+      </c>
+      <c r="B248" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" hidden="1">
+      <c r="A249" t="s">
         <v>254</v>
       </c>
-      <c r="B247" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" t="s">
-        <v>96</v>
-      </c>
-      <c r="B248" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" t="s">
-        <v>255</v>
-      </c>
       <c r="B249" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" hidden="1">
       <c r="A250" t="s">
         <v>1</v>
       </c>
       <c r="B250" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" hidden="1">
       <c r="A251" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B251" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" hidden="1">
       <c r="A252" t="s">
         <v>2</v>
       </c>
       <c r="B252" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" hidden="1">
       <c r="A253" t="s">
         <v>3</v>
       </c>
       <c r="B253" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" hidden="1">
+      <c r="A254" t="s">
+        <v>417</v>
+      </c>
+      <c r="B254" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="254" spans="1:2">
-      <c r="A254" t="s">
+    <row r="255" spans="1:2" hidden="1">
+      <c r="A255" t="s">
         <v>418</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B255" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="255" spans="1:2">
-      <c r="A255" t="s">
+    <row r="256" spans="1:2" hidden="1">
+      <c r="A256" t="s">
         <v>419</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B256" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="256" spans="1:2">
-      <c r="A256" t="s">
+    <row r="257" spans="1:2" hidden="1">
+      <c r="A257" t="s">
         <v>420</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B257" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="257" spans="1:2">
-      <c r="A257" t="s">
-        <v>421</v>
-      </c>
-      <c r="B257" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
+    <row r="258" spans="1:2" hidden="1">
       <c r="A258" t="s">
         <v>11</v>
       </c>
       <c r="B258" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" hidden="1">
+      <c r="A259" t="s">
+        <v>421</v>
+      </c>
+      <c r="B259" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="259" spans="1:2">
-      <c r="A259" t="s">
+    <row r="260" spans="1:2" hidden="1">
+      <c r="A260" t="s">
         <v>422</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B260" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="260" spans="1:2">
-      <c r="A260" t="s">
+    <row r="261" spans="1:2" hidden="1">
+      <c r="A261" t="s">
         <v>423</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B261" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="261" spans="1:2">
-      <c r="A261" t="s">
+    <row r="262" spans="1:2" hidden="1">
+      <c r="A262" t="s">
         <v>424</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B262" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" hidden="1">
+      <c r="A263" t="s">
+        <v>425</v>
+      </c>
+      <c r="B263" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" hidden="1">
+      <c r="A264" t="s">
+        <v>426</v>
+      </c>
+      <c r="B264" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="262" spans="1:2">
-      <c r="A262" t="s">
-        <v>425</v>
-      </c>
-      <c r="B262" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" t="s">
-        <v>426</v>
-      </c>
-      <c r="B263" t="s">
+    <row r="265" spans="1:2" hidden="1">
+      <c r="A265" t="s">
+        <v>427</v>
+      </c>
+      <c r="B265" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" hidden="1">
+      <c r="A266" t="s">
+        <v>428</v>
+      </c>
+      <c r="B266" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" hidden="1">
+      <c r="A267" t="s">
+        <v>429</v>
+      </c>
+      <c r="B267" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" hidden="1">
+      <c r="A268" t="s">
+        <v>430</v>
+      </c>
+      <c r="B268" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" hidden="1">
+      <c r="A269" t="s">
+        <v>431</v>
+      </c>
+      <c r="B269" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" hidden="1">
+      <c r="A270" t="s">
+        <v>432</v>
+      </c>
+      <c r="B270" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" hidden="1">
+      <c r="A271" t="s">
+        <v>433</v>
+      </c>
+      <c r="B271" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" hidden="1">
+      <c r="A272" t="s">
+        <v>434</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" hidden="1">
+      <c r="A273" t="s">
+        <v>435</v>
+      </c>
+      <c r="B273" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" hidden="1">
+      <c r="A274" t="s">
+        <v>436</v>
+      </c>
+      <c r="B274" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" hidden="1">
+      <c r="A275" t="s">
+        <v>437</v>
+      </c>
+      <c r="B275" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" hidden="1">
+      <c r="A276" t="s">
+        <v>438</v>
+      </c>
+      <c r="B276" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" hidden="1">
+      <c r="A277" t="s">
+        <v>439</v>
+      </c>
+      <c r="B277" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" hidden="1">
+      <c r="A278" t="s">
+        <v>440</v>
+      </c>
+      <c r="B278" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" hidden="1">
+      <c r="A279" t="s">
+        <v>441</v>
+      </c>
+      <c r="B279" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" hidden="1">
+      <c r="A280" t="s">
+        <v>442</v>
+      </c>
+      <c r="B280" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" hidden="1">
+      <c r="A281" t="s">
+        <v>443</v>
+      </c>
+      <c r="B281" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" hidden="1">
+      <c r="A282" t="s">
+        <v>444</v>
+      </c>
+      <c r="B282" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" hidden="1">
+      <c r="A283" t="s">
+        <v>445</v>
+      </c>
+      <c r="B283" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="264" spans="1:2">
-      <c r="A264" t="s">
-        <v>427</v>
-      </c>
-      <c r="B264" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" t="s">
-        <v>428</v>
-      </c>
-      <c r="B265" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" t="s">
-        <v>429</v>
-      </c>
-      <c r="B266" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" t="s">
-        <v>430</v>
-      </c>
-      <c r="B267" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" t="s">
-        <v>431</v>
-      </c>
-      <c r="B268" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" t="s">
-        <v>432</v>
-      </c>
-      <c r="B269" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" t="s">
-        <v>433</v>
-      </c>
-      <c r="B270" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" t="s">
-        <v>434</v>
-      </c>
-      <c r="B271" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" t="s">
-        <v>435</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2">
-      <c r="A273" t="s">
-        <v>436</v>
-      </c>
-      <c r="B273" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2">
-      <c r="A274" t="s">
-        <v>437</v>
-      </c>
-      <c r="B274" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2">
-      <c r="A275" t="s">
-        <v>438</v>
-      </c>
-      <c r="B275" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2">
-      <c r="A276" t="s">
-        <v>439</v>
-      </c>
-      <c r="B276" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2">
-      <c r="A277" t="s">
-        <v>440</v>
-      </c>
-      <c r="B277" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2">
-      <c r="A278" t="s">
-        <v>441</v>
-      </c>
-      <c r="B278" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2">
-      <c r="A279" t="s">
-        <v>442</v>
-      </c>
-      <c r="B279" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2">
-      <c r="A280" t="s">
-        <v>443</v>
-      </c>
-      <c r="B280" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2">
-      <c r="A281" t="s">
-        <v>444</v>
-      </c>
-      <c r="B281" t="s">
+    <row r="284" spans="1:2" hidden="1">
+      <c r="A284" t="s">
+        <v>446</v>
+      </c>
+      <c r="B284" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" hidden="1">
+      <c r="A285" t="s">
+        <v>447</v>
+      </c>
+      <c r="B285" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" hidden="1">
+      <c r="A286" t="s">
+        <v>448</v>
+      </c>
+      <c r="B286" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" hidden="1">
+      <c r="A287" t="s">
+        <v>449</v>
+      </c>
+      <c r="B287" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" hidden="1">
+      <c r="A288" t="s">
+        <v>450</v>
+      </c>
+      <c r="B288" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" hidden="1">
+      <c r="A289" t="s">
+        <v>451</v>
+      </c>
+      <c r="B289" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" hidden="1">
+      <c r="A290" t="s">
+        <v>452</v>
+      </c>
+      <c r="B290" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" hidden="1">
+      <c r="A291" t="s">
+        <v>453</v>
+      </c>
+      <c r="B291" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" hidden="1">
+      <c r="A292" t="s">
+        <v>454</v>
+      </c>
+      <c r="B292" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" hidden="1">
+      <c r="A293" t="s">
+        <v>455</v>
+      </c>
+      <c r="B293" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" hidden="1">
+      <c r="A294" t="s">
+        <v>456</v>
+      </c>
+      <c r="B294" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" hidden="1">
+      <c r="A295" t="s">
+        <v>457</v>
+      </c>
+      <c r="B295" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" hidden="1">
+      <c r="A296" t="s">
+        <v>458</v>
+      </c>
+      <c r="B296" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" hidden="1">
+      <c r="A297" t="s">
+        <v>459</v>
+      </c>
+      <c r="B297" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" hidden="1">
+      <c r="A298" t="s">
+        <v>95</v>
+      </c>
+      <c r="B298" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="282" spans="1:2">
-      <c r="A282" t="s">
-        <v>445</v>
-      </c>
-      <c r="B282" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2">
-      <c r="A283" t="s">
-        <v>446</v>
-      </c>
-      <c r="B283" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2">
-      <c r="A284" t="s">
-        <v>447</v>
-      </c>
-      <c r="B284" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2">
-      <c r="A285" t="s">
-        <v>448</v>
-      </c>
-      <c r="B285" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2">
-      <c r="A286" t="s">
-        <v>449</v>
-      </c>
-      <c r="B286" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2">
-      <c r="A287" t="s">
-        <v>450</v>
-      </c>
-      <c r="B287" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2">
-      <c r="A288" t="s">
-        <v>451</v>
-      </c>
-      <c r="B288" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2">
-      <c r="A289" t="s">
-        <v>452</v>
-      </c>
-      <c r="B289" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2">
-      <c r="A290" t="s">
-        <v>453</v>
-      </c>
-      <c r="B290" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2">
-      <c r="A291" t="s">
-        <v>454</v>
-      </c>
-      <c r="B291" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2">
-      <c r="A292" t="s">
-        <v>455</v>
-      </c>
-      <c r="B292" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2">
-      <c r="A293" t="s">
-        <v>456</v>
-      </c>
-      <c r="B293" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2">
-      <c r="A294" t="s">
-        <v>457</v>
-      </c>
-      <c r="B294" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2">
-      <c r="A295" t="s">
-        <v>458</v>
-      </c>
-      <c r="B295" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2">
-      <c r="A296" t="s">
-        <v>459</v>
-      </c>
-      <c r="B296" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2">
-      <c r="A297" t="s">
+    <row r="299" spans="1:2" ht="15" hidden="1">
+      <c r="A299" t="s">
         <v>460</v>
       </c>
-      <c r="B297" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2">
-      <c r="A298" t="s">
-        <v>96</v>
-      </c>
-      <c r="B298" t="s">
+      <c r="B299" s="4" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="299" spans="1:2">
-      <c r="A299" t="s">
+    <row r="300" spans="1:2" hidden="1">
+      <c r="A300" t="s">
         <v>461</v>
       </c>
-      <c r="B299" s="4" t="s">
+      <c r="B300" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="300" spans="1:2">
-      <c r="A300" t="s">
+    <row r="301" spans="1:2" hidden="1">
+      <c r="A301" t="s">
         <v>462</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B301" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="301" spans="1:2">
-      <c r="A301" t="s">
-        <v>463</v>
-      </c>
-      <c r="B301" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
+    <row r="302" spans="1:2" hidden="1">
       <c r="A302" t="s">
+        <v>499</v>
+      </c>
+      <c r="B302" t="s">
         <v>500</v>
       </c>
-      <c r="B302" t="s">
+    </row>
+    <row r="303" spans="1:2" hidden="1">
+      <c r="A303" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="303" spans="1:2">
-      <c r="A303" t="s">
+      <c r="B303" t="s">
         <v>502</v>
       </c>
-      <c r="B303" t="s">
+    </row>
+    <row r="304" spans="1:2" hidden="1">
+      <c r="A304" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="304" spans="1:2">
-      <c r="A304" t="s">
+      <c r="B304" t="s">
         <v>504</v>
       </c>
-      <c r="B304" t="s">
+    </row>
+    <row r="305" spans="1:2" hidden="1">
+      <c r="A305" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="305" spans="1:2">
-      <c r="A305" t="s">
+      <c r="B305" t="s">
         <v>506</v>
       </c>
-      <c r="B305" t="s">
+    </row>
+    <row r="306" spans="1:2" hidden="1">
+      <c r="A306" t="s">
+        <v>508</v>
+      </c>
+      <c r="B306" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="306" spans="1:2">
-      <c r="A306" t="s">
+    <row r="307" spans="1:2" hidden="1">
+      <c r="A307" t="s">
+        <v>510</v>
+      </c>
+      <c r="B307" t="s">
         <v>509</v>
       </c>
-      <c r="B306" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2">
-      <c r="A307" t="s">
+    </row>
+    <row r="308" spans="1:2" hidden="1">
+      <c r="A308" t="s">
+        <v>512</v>
+      </c>
+      <c r="B308" t="s">
         <v>511</v>
       </c>
-      <c r="B307" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2">
-      <c r="A308" t="s">
+    </row>
+    <row r="309" spans="1:2" hidden="1">
+      <c r="A309" t="s">
         <v>513</v>
       </c>
-      <c r="B308" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2">
-      <c r="A309" t="s">
+      <c r="B309" t="s">
         <v>514</v>
       </c>
-      <c r="B309" t="s">
+    </row>
+    <row r="310" spans="1:2" hidden="1">
+      <c r="A310" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="310" spans="1:2">
-      <c r="A310" t="s">
+      <c r="B310" t="s">
         <v>516</v>
       </c>
-      <c r="B310" t="s">
+    </row>
+    <row r="311" spans="1:2" hidden="1">
+      <c r="A311" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="311" spans="1:2">
-      <c r="A311" t="s">
+      <c r="B311" t="s">
         <v>518</v>
       </c>
-      <c r="B311" t="s">
+    </row>
+    <row r="312" spans="1:2" hidden="1">
+      <c r="A312" t="s">
+        <v>520</v>
+      </c>
+      <c r="B312" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="312" spans="1:2">
-      <c r="A312" t="s">
+    <row r="313" spans="1:2" hidden="1">
+      <c r="A313" t="s">
         <v>521</v>
       </c>
-      <c r="B312" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2">
-      <c r="A313" t="s">
+      <c r="B313" t="s">
         <v>522</v>
       </c>
-      <c r="B313" t="s">
+    </row>
+    <row r="314" spans="1:2" hidden="1">
+      <c r="A314" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="314" spans="1:2">
-      <c r="A314" t="s">
+      <c r="B314" t="s">
         <v>524</v>
       </c>
-      <c r="B314" t="s">
+    </row>
+    <row r="315" spans="1:2" hidden="1">
+      <c r="A315" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="315" spans="1:2">
-      <c r="A315" t="s">
+      <c r="B315" t="s">
         <v>526</v>
       </c>
-      <c r="B315" t="s">
+    </row>
+    <row r="316" spans="1:2" hidden="1">
+      <c r="A316" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="316" spans="1:2">
-      <c r="A316" t="s">
+      <c r="B316" t="s">
         <v>528</v>
       </c>
-      <c r="B316" t="s">
+    </row>
+    <row r="317" spans="1:2" hidden="1">
+      <c r="A317" t="s">
+        <v>530</v>
+      </c>
+      <c r="B317" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="317" spans="1:2">
-      <c r="A317" t="s">
+    <row r="318" spans="1:2" hidden="1">
+      <c r="A318" t="s">
         <v>531</v>
       </c>
-      <c r="B317" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2">
-      <c r="A318" t="s">
+      <c r="B318" t="s">
         <v>532</v>
       </c>
-      <c r="B318" t="s">
+    </row>
+    <row r="319" spans="1:2" hidden="1">
+      <c r="A319" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="319" spans="1:2">
-      <c r="A319" t="s">
+      <c r="B319" t="s">
         <v>534</v>
       </c>
-      <c r="B319" t="s">
+    </row>
+    <row r="320" spans="1:2" hidden="1">
+      <c r="A320" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="320" spans="1:2">
-      <c r="A320" t="s">
+      <c r="B320" t="s">
         <v>536</v>
       </c>
-      <c r="B320" t="s">
+    </row>
+    <row r="321" spans="1:2" hidden="1">
+      <c r="A321" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="321" spans="1:2">
-      <c r="A321" t="s">
+      <c r="B321" t="s">
         <v>538</v>
       </c>
-      <c r="B321" t="s">
+    </row>
+    <row r="322" spans="1:2" hidden="1">
+      <c r="A322" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="322" spans="1:2">
-      <c r="A322" t="s">
+      <c r="B322" t="s">
         <v>540</v>
       </c>
-      <c r="B322" t="s">
+    </row>
+    <row r="323" spans="1:2" hidden="1">
+      <c r="A323" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="323" spans="1:2">
-      <c r="A323" t="s">
+      <c r="B323" t="s">
         <v>542</v>
       </c>
-      <c r="B323" t="s">
+    </row>
+    <row r="324" spans="1:2" hidden="1">
+      <c r="A324" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="324" spans="1:2">
-      <c r="A324" t="s">
+      <c r="B324" t="s">
         <v>544</v>
       </c>
-      <c r="B324" t="s">
+    </row>
+    <row r="325" spans="1:2" hidden="1">
+      <c r="A325" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="325" spans="1:2">
-      <c r="A325" t="s">
+      <c r="B325" t="s">
         <v>546</v>
       </c>
-      <c r="B325" t="s">
+    </row>
+    <row r="326" spans="1:2" hidden="1">
+      <c r="A326" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="326" spans="1:2">
-      <c r="A326" t="s">
+      <c r="B326" t="s">
         <v>548</v>
       </c>
-      <c r="B326" t="s">
+    </row>
+    <row r="327" spans="1:2" hidden="1">
+      <c r="A327" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="327" spans="1:2">
-      <c r="A327" t="s">
+      <c r="B327" t="s">
         <v>550</v>
       </c>
-      <c r="B327" t="s">
+    </row>
+    <row r="328" spans="1:2" hidden="1">
+      <c r="A328" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="328" spans="1:2">
-      <c r="A328" t="s">
+      <c r="B328" t="s">
         <v>552</v>
       </c>
-      <c r="B328" t="s">
+    </row>
+    <row r="329" spans="1:2" ht="16" hidden="1">
+      <c r="A329" s="6" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="329" spans="1:2">
-      <c r="A329" s="6" t="s">
+      <c r="B329" t="s">
         <v>554</v>
       </c>
-      <c r="B329" t="s">
+    </row>
+    <row r="330" spans="1:2" hidden="1">
+      <c r="A330" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" t="s">
+      <c r="B330" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" hidden="1">
+      <c r="A331" t="s">
         <v>556</v>
       </c>
-      <c r="B330" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" t="s">
+      <c r="B331" t="s">
         <v>557</v>
       </c>
-      <c r="B331" t="s">
+    </row>
+    <row r="332" spans="1:2" hidden="1">
+      <c r="A332" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="332" spans="1:2">
-      <c r="A332" t="s">
+      <c r="B332" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" hidden="1">
+      <c r="A333" t="s">
         <v>559</v>
       </c>
-      <c r="B332" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2">
-      <c r="A333" t="s">
+      <c r="B333" t="s">
         <v>560</v>
       </c>
-      <c r="B333" t="s">
+    </row>
+    <row r="334" spans="1:2" hidden="1">
+      <c r="A334" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="334" spans="1:2">
-      <c r="A334" t="s">
+      <c r="B334" t="s">
         <v>562</v>
       </c>
-      <c r="B334" t="s">
+    </row>
+    <row r="335" spans="1:2" hidden="1">
+      <c r="A335" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="335" spans="1:2">
-      <c r="A335" t="s">
+      <c r="B335" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" hidden="1">
+      <c r="A336" t="s">
         <v>564</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B336" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="336" spans="1:2">
-      <c r="A336" t="s">
+    <row r="337" spans="1:2" hidden="1">
+      <c r="A337" t="s">
         <v>565</v>
       </c>
-      <c r="B336" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2">
-      <c r="A337" t="s">
+      <c r="B337" t="s">
         <v>566</v>
       </c>
-      <c r="B337" t="s">
+    </row>
+    <row r="338" spans="1:2" hidden="1">
+      <c r="A338" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="338" spans="1:2">
-      <c r="A338" t="s">
+      <c r="B338" t="s">
         <v>568</v>
       </c>
-      <c r="B338" t="s">
+    </row>
+    <row r="339" spans="1:2" hidden="1">
+      <c r="A339" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="339" spans="1:2">
-      <c r="A339" t="s">
+      <c r="B339" t="s">
         <v>570</v>
       </c>
-      <c r="B339" t="s">
-        <v>571</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B339" xr:uid="{292E9539-DDEC-46C1-BF61-190BF5D22634}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="AGOCesareas"/>
+        <filter val="Area"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A332:A339">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiyuanli/Desktop/homework1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A43E2A-3591-F242-873E-CC41E744D485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6561F9-7AC1-4A4C-9FD2-60096D4E47A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="660" yWindow="1340" windowWidth="25380" windowHeight="13920" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="571">
   <si>
     <t>IdControlVital</t>
   </si>
@@ -534,9 +534,6 @@
     <t>AGOPartos</t>
   </si>
   <si>
-    <t>AGOCesareas</t>
-  </si>
-  <si>
     <t>AGOAbortos</t>
   </si>
   <si>
@@ -1749,7 +1746,7 @@
     <t>Outcome</t>
   </si>
   <si>
-    <t xml:space="preserve">Patient's visit area record : Available areas </t>
+    <t xml:space="preserve">Available areas </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1788,6 +1785,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2182,7 +2180,7 @@
   <dimension ref="A1:B339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B347" sqref="B347"/>
+      <selection activeCell="B342" sqref="B342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -2716,7 +2714,7 @@
         <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="67" spans="1:2" hidden="1">
@@ -2724,7 +2722,7 @@
         <v>89</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="68" spans="1:2" hidden="1">
@@ -2740,7 +2738,7 @@
         <v>1</v>
       </c>
       <c r="B69" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="70" spans="1:2" hidden="1">
@@ -2748,7 +2746,7 @@
         <v>2</v>
       </c>
       <c r="B70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:2" hidden="1">
@@ -2756,7 +2754,7 @@
         <v>3</v>
       </c>
       <c r="B71" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="72" spans="1:2" hidden="1">
@@ -2764,7 +2762,7 @@
         <v>96</v>
       </c>
       <c r="B72" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:2" hidden="1">
@@ -2772,7 +2770,7 @@
         <v>97</v>
       </c>
       <c r="B73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:2" hidden="1">
@@ -2780,7 +2778,7 @@
         <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:2" hidden="1">
@@ -2788,7 +2786,7 @@
         <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:2" hidden="1">
@@ -2796,7 +2794,7 @@
         <v>100</v>
       </c>
       <c r="B76" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:2" hidden="1">
@@ -2804,7 +2802,7 @@
         <v>101</v>
       </c>
       <c r="B77" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:2" hidden="1">
@@ -2812,7 +2810,7 @@
         <v>102</v>
       </c>
       <c r="B78" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="79" spans="1:2" hidden="1">
@@ -2820,7 +2818,7 @@
         <v>103</v>
       </c>
       <c r="B79" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:2" hidden="1">
@@ -2828,7 +2826,7 @@
         <v>104</v>
       </c>
       <c r="B80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="81" spans="1:2" hidden="1">
@@ -2836,7 +2834,7 @@
         <v>105</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="82" spans="1:2" hidden="1">
@@ -2844,7 +2842,7 @@
         <v>106</v>
       </c>
       <c r="B82" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:2" hidden="1">
@@ -2852,7 +2850,7 @@
         <v>107</v>
       </c>
       <c r="B83" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:2" hidden="1">
@@ -2860,7 +2858,7 @@
         <v>108</v>
       </c>
       <c r="B84" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="85" spans="1:2" hidden="1">
@@ -2868,7 +2866,7 @@
         <v>109</v>
       </c>
       <c r="B85" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:2" hidden="1">
@@ -2876,7 +2874,7 @@
         <v>110</v>
       </c>
       <c r="B86" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:2" hidden="1">
@@ -2884,7 +2882,7 @@
         <v>111</v>
       </c>
       <c r="B87" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:2" hidden="1">
@@ -2892,7 +2890,7 @@
         <v>112</v>
       </c>
       <c r="B88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:2" hidden="1">
@@ -2900,7 +2898,7 @@
         <v>113</v>
       </c>
       <c r="B89" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:2" hidden="1">
@@ -2908,7 +2906,7 @@
         <v>114</v>
       </c>
       <c r="B90" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="91" spans="1:2" hidden="1">
@@ -2916,7 +2914,7 @@
         <v>115</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:2" hidden="1">
@@ -2924,7 +2922,7 @@
         <v>116</v>
       </c>
       <c r="B92" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:2" hidden="1">
@@ -2932,7 +2930,7 @@
         <v>117</v>
       </c>
       <c r="B93" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:2" hidden="1">
@@ -2940,7 +2938,7 @@
         <v>118</v>
       </c>
       <c r="B94" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:2" hidden="1">
@@ -2948,7 +2946,7 @@
         <v>119</v>
       </c>
       <c r="B95" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:2" hidden="1">
@@ -2956,7 +2954,7 @@
         <v>120</v>
       </c>
       <c r="B96" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="97" spans="1:2" hidden="1">
@@ -2964,7 +2962,7 @@
         <v>121</v>
       </c>
       <c r="B97" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:2" hidden="1">
@@ -2972,7 +2970,7 @@
         <v>122</v>
       </c>
       <c r="B98" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="99" spans="1:2" hidden="1">
@@ -2980,7 +2978,7 @@
         <v>123</v>
       </c>
       <c r="B99" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="100" spans="1:2" hidden="1">
@@ -2988,7 +2986,7 @@
         <v>124</v>
       </c>
       <c r="B100" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="101" spans="1:2" hidden="1">
@@ -2996,7 +2994,7 @@
         <v>125</v>
       </c>
       <c r="B101" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="102" spans="1:2" hidden="1">
@@ -3004,7 +3002,7 @@
         <v>126</v>
       </c>
       <c r="B102" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="103" spans="1:2" hidden="1">
@@ -3012,7 +3010,7 @@
         <v>127</v>
       </c>
       <c r="B103" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="104" spans="1:2" hidden="1">
@@ -3020,7 +3018,7 @@
         <v>128</v>
       </c>
       <c r="B104" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="105" spans="1:2" hidden="1">
@@ -3028,7 +3026,7 @@
         <v>129</v>
       </c>
       <c r="B105" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="1:2" hidden="1">
@@ -3036,7 +3034,7 @@
         <v>130</v>
       </c>
       <c r="B106" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="107" spans="1:2" hidden="1">
@@ -3044,7 +3042,7 @@
         <v>131</v>
       </c>
       <c r="B107" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:2" hidden="1">
@@ -3052,7 +3050,7 @@
         <v>132</v>
       </c>
       <c r="B108" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="109" spans="1:2" hidden="1">
@@ -3060,7 +3058,7 @@
         <v>133</v>
       </c>
       <c r="B109" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" spans="1:2" hidden="1">
@@ -3068,7 +3066,7 @@
         <v>134</v>
       </c>
       <c r="B110" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="111" spans="1:2" hidden="1">
@@ -3076,7 +3074,7 @@
         <v>135</v>
       </c>
       <c r="B111" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="112" spans="1:2" hidden="1">
@@ -3084,7 +3082,7 @@
         <v>136</v>
       </c>
       <c r="B112" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="113" spans="1:2" hidden="1">
@@ -3092,7 +3090,7 @@
         <v>137</v>
       </c>
       <c r="B113" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="114" spans="1:2" hidden="1">
@@ -3100,7 +3098,7 @@
         <v>138</v>
       </c>
       <c r="B114" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:2" hidden="1">
@@ -3108,7 +3106,7 @@
         <v>139</v>
       </c>
       <c r="B115" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="116" spans="1:2" hidden="1">
@@ -3116,7 +3114,7 @@
         <v>140</v>
       </c>
       <c r="B116" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="117" spans="1:2" hidden="1">
@@ -3124,7 +3122,7 @@
         <v>141</v>
       </c>
       <c r="B117" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="118" spans="1:2" hidden="1">
@@ -3132,7 +3130,7 @@
         <v>142</v>
       </c>
       <c r="B118" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="119" spans="1:2" hidden="1">
@@ -3140,7 +3138,7 @@
         <v>143</v>
       </c>
       <c r="B119" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="120" spans="1:2" hidden="1">
@@ -3148,7 +3146,7 @@
         <v>144</v>
       </c>
       <c r="B120" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="121" spans="1:2" hidden="1">
@@ -3156,7 +3154,7 @@
         <v>145</v>
       </c>
       <c r="B121" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="122" spans="1:2" hidden="1">
@@ -3164,7 +3162,7 @@
         <v>146</v>
       </c>
       <c r="B122" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="123" spans="1:2" hidden="1">
@@ -3172,7 +3170,7 @@
         <v>147</v>
       </c>
       <c r="B123" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="124" spans="1:2" hidden="1">
@@ -3180,7 +3178,7 @@
         <v>148</v>
       </c>
       <c r="B124" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="125" spans="1:2" hidden="1">
@@ -3188,7 +3186,7 @@
         <v>149</v>
       </c>
       <c r="B125" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="126" spans="1:2" hidden="1">
@@ -3196,7 +3194,7 @@
         <v>150</v>
       </c>
       <c r="B126" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="127" spans="1:2" hidden="1">
@@ -3204,7 +3202,7 @@
         <v>151</v>
       </c>
       <c r="B127" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="128" spans="1:2" hidden="1">
@@ -3212,7 +3210,7 @@
         <v>152</v>
       </c>
       <c r="B128" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="129" spans="1:2" hidden="1">
@@ -3220,7 +3218,7 @@
         <v>153</v>
       </c>
       <c r="B129" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="130" spans="1:2" hidden="1">
@@ -3228,7 +3226,7 @@
         <v>154</v>
       </c>
       <c r="B130" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="131" spans="1:2" hidden="1">
@@ -3236,7 +3234,7 @@
         <v>155</v>
       </c>
       <c r="B131" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="132" spans="1:2" hidden="1">
@@ -3244,7 +3242,7 @@
         <v>156</v>
       </c>
       <c r="B132" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="133" spans="1:2" hidden="1">
@@ -3252,7 +3250,7 @@
         <v>157</v>
       </c>
       <c r="B133" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="134" spans="1:2" hidden="1">
@@ -3260,7 +3258,7 @@
         <v>158</v>
       </c>
       <c r="B134" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="135" spans="1:2" hidden="1">
@@ -3268,7 +3266,7 @@
         <v>159</v>
       </c>
       <c r="B135" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="136" spans="1:2" hidden="1">
@@ -3276,7 +3274,7 @@
         <v>160</v>
       </c>
       <c r="B136" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="137" spans="1:2" hidden="1">
@@ -3284,7 +3282,7 @@
         <v>161</v>
       </c>
       <c r="B137" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="138" spans="1:2" hidden="1">
@@ -3292,7 +3290,7 @@
         <v>162</v>
       </c>
       <c r="B138" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="139" spans="1:2" hidden="1">
@@ -3300,7 +3298,7 @@
         <v>163</v>
       </c>
       <c r="B139" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="140" spans="1:2" hidden="1">
@@ -3308,7 +3306,7 @@
         <v>164</v>
       </c>
       <c r="B140" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="141" spans="1:2" hidden="1">
@@ -3316,47 +3314,44 @@
         <v>165</v>
       </c>
       <c r="B141" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="B142" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>166</v>
-      </c>
-      <c r="B142" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="143" spans="1:2" hidden="1">
       <c r="A143" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B143" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="144" spans="1:2" hidden="1">
       <c r="A144" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B144" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="145" spans="1:2" hidden="1">
       <c r="A145" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B145" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="146" spans="1:2" hidden="1">
       <c r="A146" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B146" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="147" spans="1:2" hidden="1">
@@ -3364,7 +3359,7 @@
         <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="148" spans="1:2" hidden="1">
@@ -3372,7 +3367,7 @@
         <v>6</v>
       </c>
       <c r="B148" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="149" spans="1:2" hidden="1">
@@ -3388,7 +3383,7 @@
         <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="151" spans="1:2" hidden="1">
@@ -3396,7 +3391,7 @@
         <v>9</v>
       </c>
       <c r="B151" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="152" spans="1:2" hidden="1">
@@ -3404,159 +3399,159 @@
         <v>10</v>
       </c>
       <c r="B152" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="153" spans="1:2" hidden="1">
       <c r="A153" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B153" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="154" spans="1:2" hidden="1">
       <c r="A154" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B154" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="155" spans="1:2" hidden="1">
       <c r="A155" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B155" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="156" spans="1:2" hidden="1">
       <c r="A156" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B156" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="157" spans="1:2" hidden="1">
       <c r="A157" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B157" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="158" spans="1:2" hidden="1">
       <c r="A158" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B158" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="159" spans="1:2" hidden="1">
       <c r="A159" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B159" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="160" spans="1:2" hidden="1">
       <c r="A160" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B160" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="161" spans="1:2" hidden="1">
       <c r="A161" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B161" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="162" spans="1:2" hidden="1">
       <c r="A162" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B162" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="163" spans="1:2" hidden="1">
       <c r="A163" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B163" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="164" spans="1:2" hidden="1">
       <c r="A164" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B164" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="165" spans="1:2" hidden="1">
       <c r="A165" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B165" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="166" spans="1:2" hidden="1">
       <c r="A166" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B166" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="167" spans="1:2" hidden="1">
       <c r="A167" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B167" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="168" spans="1:2" hidden="1">
       <c r="A168" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B168" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="169" spans="1:2" hidden="1">
       <c r="A169" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B169" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="170" spans="1:2" hidden="1">
       <c r="A170" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B170" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="171" spans="1:2" hidden="1">
       <c r="A171" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B171" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="172" spans="1:2" hidden="1">
@@ -3564,7 +3559,7 @@
         <v>34</v>
       </c>
       <c r="B172" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="173" spans="1:2" hidden="1">
@@ -3572,7 +3567,7 @@
         <v>35</v>
       </c>
       <c r="B173" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="174" spans="1:2" hidden="1">
@@ -3580,7 +3575,7 @@
         <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="175" spans="1:2" hidden="1">
@@ -3588,7 +3583,7 @@
         <v>12</v>
       </c>
       <c r="B175" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="176" spans="1:2" hidden="1">
@@ -3596,7 +3591,7 @@
         <v>13</v>
       </c>
       <c r="B176" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="177" spans="1:2" hidden="1">
@@ -3604,7 +3599,7 @@
         <v>36</v>
       </c>
       <c r="B177" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="178" spans="1:2" hidden="1">
@@ -3612,7 +3607,7 @@
         <v>38</v>
       </c>
       <c r="B178" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="179" spans="1:2" hidden="1">
@@ -3620,55 +3615,55 @@
         <v>39</v>
       </c>
       <c r="B179" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="180" spans="1:2" hidden="1">
       <c r="A180" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B180" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="181" spans="1:2" hidden="1">
       <c r="A181" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B181" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="182" spans="1:2" hidden="1">
       <c r="A182" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B182" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="183" spans="1:2" hidden="1">
       <c r="A183" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B183" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="184" spans="1:2" hidden="1">
       <c r="A184" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B184" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="185" spans="1:2" hidden="1">
       <c r="A185" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B185" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="186" spans="1:2" hidden="1">
@@ -3676,7 +3671,7 @@
         <v>1</v>
       </c>
       <c r="B186" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="187" spans="1:2" hidden="1">
@@ -3684,7 +3679,7 @@
         <v>11</v>
       </c>
       <c r="B187" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="188" spans="1:2" hidden="1">
@@ -3692,7 +3687,7 @@
         <v>2</v>
       </c>
       <c r="B188" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="189" spans="1:2" hidden="1">
@@ -3700,471 +3695,471 @@
         <v>3</v>
       </c>
       <c r="B189" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="190" spans="1:2" hidden="1">
       <c r="A190" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B190" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="191" spans="1:2" hidden="1">
       <c r="A191" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B191" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="192" spans="1:2" hidden="1">
       <c r="A192" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B192" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="193" spans="1:2" hidden="1">
       <c r="A193" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B193" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="194" spans="1:2" hidden="1">
       <c r="A194" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B194" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="195" spans="1:2" hidden="1">
       <c r="A195" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B195" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="196" spans="1:2" hidden="1">
       <c r="A196" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B196" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="197" spans="1:2" hidden="1">
       <c r="A197" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B197" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="198" spans="1:2" hidden="1">
       <c r="A198" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B198" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="199" spans="1:2" hidden="1">
       <c r="A199" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B199" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="200" spans="1:2" hidden="1">
       <c r="A200" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B200" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="201" spans="1:2" hidden="1">
       <c r="A201" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B201" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="202" spans="1:2" hidden="1">
       <c r="A202" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B202" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="203" spans="1:2" hidden="1">
       <c r="A203" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B203" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="204" spans="1:2" hidden="1">
       <c r="A204" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B204" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="205" spans="1:2" hidden="1">
       <c r="A205" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B205" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="206" spans="1:2" hidden="1">
       <c r="A206" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B206" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="207" spans="1:2" hidden="1">
       <c r="A207" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B207" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="208" spans="1:2" hidden="1">
       <c r="A208" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B208" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="209" spans="1:2" hidden="1">
       <c r="A209" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B209" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="210" spans="1:2" hidden="1">
       <c r="A210" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B210" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="211" spans="1:2" hidden="1">
       <c r="A211" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B211" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="212" spans="1:2" hidden="1">
       <c r="A212" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B212" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="213" spans="1:2" hidden="1">
       <c r="A213" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B213" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="214" spans="1:2" hidden="1">
       <c r="A214" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B214" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="215" spans="1:2" hidden="1">
       <c r="A215" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B215" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="216" spans="1:2" hidden="1">
       <c r="A216" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B216" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="217" spans="1:2" hidden="1">
       <c r="A217" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B217" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="218" spans="1:2" hidden="1">
       <c r="A218" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B218" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="219" spans="1:2" hidden="1">
       <c r="A219" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B219" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="220" spans="1:2" hidden="1">
       <c r="A220" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B220" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="221" spans="1:2" hidden="1">
       <c r="A221" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B221" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="222" spans="1:2" hidden="1">
       <c r="A222" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B222" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="223" spans="1:2" hidden="1">
       <c r="A223" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B223" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="224" spans="1:2" hidden="1">
       <c r="A224" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B224" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="225" spans="1:2" hidden="1">
       <c r="A225" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B225" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="226" spans="1:2" hidden="1">
       <c r="A226" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B226" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="227" spans="1:2" hidden="1">
       <c r="A227" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B227" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="228" spans="1:2" hidden="1">
       <c r="A228" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B228" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="229" spans="1:2" hidden="1">
       <c r="A229" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B229" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="230" spans="1:2" hidden="1">
       <c r="A230" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B230" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="231" spans="1:2" hidden="1">
       <c r="A231" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B231" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="232" spans="1:2" hidden="1">
       <c r="A232" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B232" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="233" spans="1:2" hidden="1">
       <c r="A233" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B233" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="234" spans="1:2" hidden="1">
       <c r="A234" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="235" spans="1:2" hidden="1">
       <c r="A235" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B235" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="236" spans="1:2" hidden="1">
       <c r="A236" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B236" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="237" spans="1:2" hidden="1">
       <c r="A237" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B237" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="238" spans="1:2" hidden="1">
       <c r="A238" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B238" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="239" spans="1:2" hidden="1">
       <c r="A239" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B239" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="240" spans="1:2" hidden="1">
       <c r="A240" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B240" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="241" spans="1:2" hidden="1">
       <c r="A241" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B241" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="242" spans="1:2" hidden="1">
       <c r="A242" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B242" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="243" spans="1:2" hidden="1">
       <c r="A243" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B243" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="244" spans="1:2" hidden="1">
       <c r="A244" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B244" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="245" spans="1:2" hidden="1">
       <c r="A245" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B245" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="246" spans="1:2" hidden="1">
       <c r="A246" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B246" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="247" spans="1:2" hidden="1">
       <c r="A247" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B247" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="248" spans="1:2" hidden="1">
@@ -4172,15 +4167,15 @@
         <v>95</v>
       </c>
       <c r="B248" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="249" spans="1:2" hidden="1">
       <c r="A249" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B249" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="250" spans="1:2" hidden="1">
@@ -4188,15 +4183,15 @@
         <v>1</v>
       </c>
       <c r="B250" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="251" spans="1:2" hidden="1">
       <c r="A251" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B251" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="252" spans="1:2" hidden="1">
@@ -4204,7 +4199,7 @@
         <v>2</v>
       </c>
       <c r="B252" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="253" spans="1:2" hidden="1">
@@ -4212,39 +4207,39 @@
         <v>3</v>
       </c>
       <c r="B253" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="254" spans="1:2" hidden="1">
       <c r="A254" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B254" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="255" spans="1:2" hidden="1">
       <c r="A255" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B255" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="256" spans="1:2" hidden="1">
       <c r="A256" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B256" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="257" spans="1:2" hidden="1">
       <c r="A257" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B257" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="258" spans="1:2" hidden="1">
@@ -4252,319 +4247,319 @@
         <v>11</v>
       </c>
       <c r="B258" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="259" spans="1:2" hidden="1">
       <c r="A259" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B259" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="260" spans="1:2" hidden="1">
       <c r="A260" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B260" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="261" spans="1:2" hidden="1">
       <c r="A261" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B261" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="262" spans="1:2" hidden="1">
       <c r="A262" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B262" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="263" spans="1:2" hidden="1">
       <c r="A263" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B263" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="264" spans="1:2" hidden="1">
       <c r="A264" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B264" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="265" spans="1:2" hidden="1">
       <c r="A265" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B265" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="266" spans="1:2" hidden="1">
       <c r="A266" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B266" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="267" spans="1:2" hidden="1">
       <c r="A267" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B267" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="268" spans="1:2" hidden="1">
       <c r="A268" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B268" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="269" spans="1:2" hidden="1">
       <c r="A269" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B269" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="270" spans="1:2" hidden="1">
       <c r="A270" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B270" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="271" spans="1:2" hidden="1">
       <c r="A271" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B271" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="272" spans="1:2" hidden="1">
       <c r="A272" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="273" spans="1:2" hidden="1">
       <c r="A273" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B273" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="274" spans="1:2" hidden="1">
       <c r="A274" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B274" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="275" spans="1:2" hidden="1">
       <c r="A275" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B275" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="276" spans="1:2" hidden="1">
       <c r="A276" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B276" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="277" spans="1:2" hidden="1">
       <c r="A277" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B277" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="278" spans="1:2" hidden="1">
       <c r="A278" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B278" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="279" spans="1:2" hidden="1">
       <c r="A279" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B279" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="280" spans="1:2" hidden="1">
       <c r="A280" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B280" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="281" spans="1:2" hidden="1">
       <c r="A281" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B281" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="282" spans="1:2" hidden="1">
       <c r="A282" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B282" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="283" spans="1:2" hidden="1">
       <c r="A283" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B283" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="284" spans="1:2" hidden="1">
       <c r="A284" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B284" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="285" spans="1:2" hidden="1">
       <c r="A285" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B285" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="286" spans="1:2" hidden="1">
       <c r="A286" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B286" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="287" spans="1:2" hidden="1">
       <c r="A287" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B287" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="288" spans="1:2" hidden="1">
       <c r="A288" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B288" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="289" spans="1:2" hidden="1">
       <c r="A289" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B289" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="290" spans="1:2" hidden="1">
       <c r="A290" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B290" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="291" spans="1:2" hidden="1">
       <c r="A291" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B291" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="292" spans="1:2" hidden="1">
       <c r="A292" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B292" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="293" spans="1:2" hidden="1">
       <c r="A293" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B293" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="294" spans="1:2" hidden="1">
       <c r="A294" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B294" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="295" spans="1:2" hidden="1">
       <c r="A295" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B295" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="296" spans="1:2" hidden="1">
       <c r="A296" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B296" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="297" spans="1:2" hidden="1">
       <c r="A297" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B297" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="298" spans="1:2" hidden="1">
@@ -4572,335 +4567,335 @@
         <v>95</v>
       </c>
       <c r="B298" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="299" spans="1:2" ht="15" hidden="1">
       <c r="A299" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B299" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="300" spans="1:2" hidden="1">
       <c r="A300" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B300" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="301" spans="1:2" hidden="1">
       <c r="A301" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B301" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="302" spans="1:2" hidden="1">
       <c r="A302" t="s">
+        <v>498</v>
+      </c>
+      <c r="B302" t="s">
         <v>499</v>
-      </c>
-      <c r="B302" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="303" spans="1:2" hidden="1">
       <c r="A303" t="s">
+        <v>500</v>
+      </c>
+      <c r="B303" t="s">
         <v>501</v>
-      </c>
-      <c r="B303" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="304" spans="1:2" hidden="1">
       <c r="A304" t="s">
+        <v>502</v>
+      </c>
+      <c r="B304" t="s">
         <v>503</v>
-      </c>
-      <c r="B304" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="305" spans="1:2" hidden="1">
       <c r="A305" t="s">
+        <v>504</v>
+      </c>
+      <c r="B305" t="s">
         <v>505</v>
-      </c>
-      <c r="B305" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="306" spans="1:2" hidden="1">
       <c r="A306" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B306" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="307" spans="1:2" hidden="1">
       <c r="A307" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B307" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="308" spans="1:2" hidden="1">
       <c r="A308" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B308" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="309" spans="1:2" hidden="1">
       <c r="A309" t="s">
+        <v>512</v>
+      </c>
+      <c r="B309" t="s">
         <v>513</v>
-      </c>
-      <c r="B309" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="310" spans="1:2" hidden="1">
       <c r="A310" t="s">
+        <v>514</v>
+      </c>
+      <c r="B310" t="s">
         <v>515</v>
-      </c>
-      <c r="B310" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="311" spans="1:2" hidden="1">
       <c r="A311" t="s">
+        <v>516</v>
+      </c>
+      <c r="B311" t="s">
         <v>517</v>
-      </c>
-      <c r="B311" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="312" spans="1:2" hidden="1">
       <c r="A312" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B312" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="313" spans="1:2" hidden="1">
       <c r="A313" t="s">
+        <v>520</v>
+      </c>
+      <c r="B313" t="s">
         <v>521</v>
-      </c>
-      <c r="B313" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="314" spans="1:2" hidden="1">
       <c r="A314" t="s">
+        <v>522</v>
+      </c>
+      <c r="B314" t="s">
         <v>523</v>
-      </c>
-      <c r="B314" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="315" spans="1:2" hidden="1">
       <c r="A315" t="s">
+        <v>524</v>
+      </c>
+      <c r="B315" t="s">
         <v>525</v>
-      </c>
-      <c r="B315" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="316" spans="1:2" hidden="1">
       <c r="A316" t="s">
+        <v>526</v>
+      </c>
+      <c r="B316" t="s">
         <v>527</v>
-      </c>
-      <c r="B316" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="317" spans="1:2" hidden="1">
       <c r="A317" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B317" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="318" spans="1:2" hidden="1">
       <c r="A318" t="s">
+        <v>530</v>
+      </c>
+      <c r="B318" t="s">
         <v>531</v>
-      </c>
-      <c r="B318" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="319" spans="1:2" hidden="1">
       <c r="A319" t="s">
+        <v>532</v>
+      </c>
+      <c r="B319" t="s">
         <v>533</v>
-      </c>
-      <c r="B319" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="320" spans="1:2" hidden="1">
       <c r="A320" t="s">
+        <v>534</v>
+      </c>
+      <c r="B320" t="s">
         <v>535</v>
-      </c>
-      <c r="B320" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="321" spans="1:2" hidden="1">
       <c r="A321" t="s">
+        <v>536</v>
+      </c>
+      <c r="B321" t="s">
         <v>537</v>
-      </c>
-      <c r="B321" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="322" spans="1:2" hidden="1">
       <c r="A322" t="s">
+        <v>538</v>
+      </c>
+      <c r="B322" t="s">
         <v>539</v>
-      </c>
-      <c r="B322" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="323" spans="1:2" hidden="1">
       <c r="A323" t="s">
+        <v>540</v>
+      </c>
+      <c r="B323" t="s">
         <v>541</v>
-      </c>
-      <c r="B323" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="324" spans="1:2" hidden="1">
       <c r="A324" t="s">
+        <v>542</v>
+      </c>
+      <c r="B324" t="s">
         <v>543</v>
-      </c>
-      <c r="B324" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="325" spans="1:2" hidden="1">
       <c r="A325" t="s">
+        <v>544</v>
+      </c>
+      <c r="B325" t="s">
         <v>545</v>
-      </c>
-      <c r="B325" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="326" spans="1:2" hidden="1">
       <c r="A326" t="s">
+        <v>546</v>
+      </c>
+      <c r="B326" t="s">
         <v>547</v>
-      </c>
-      <c r="B326" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="327" spans="1:2" hidden="1">
       <c r="A327" t="s">
+        <v>548</v>
+      </c>
+      <c r="B327" t="s">
         <v>549</v>
-      </c>
-      <c r="B327" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="328" spans="1:2" hidden="1">
       <c r="A328" t="s">
+        <v>550</v>
+      </c>
+      <c r="B328" t="s">
         <v>551</v>
-      </c>
-      <c r="B328" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="329" spans="1:2" ht="16" hidden="1">
       <c r="A329" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B329" t="s">
         <v>553</v>
-      </c>
-      <c r="B329" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="330" spans="1:2" hidden="1">
       <c r="A330" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B330" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="331" spans="1:2" hidden="1">
       <c r="A331" t="s">
+        <v>555</v>
+      </c>
+      <c r="B331" t="s">
         <v>556</v>
-      </c>
-      <c r="B331" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="332" spans="1:2" hidden="1">
       <c r="A332" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B332" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="333" spans="1:2" hidden="1">
       <c r="A333" t="s">
+        <v>558</v>
+      </c>
+      <c r="B333" t="s">
         <v>559</v>
-      </c>
-      <c r="B333" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="334" spans="1:2" hidden="1">
       <c r="A334" t="s">
+        <v>560</v>
+      </c>
+      <c r="B334" t="s">
         <v>561</v>
-      </c>
-      <c r="B334" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="335" spans="1:2" hidden="1">
       <c r="A335" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B335" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="336" spans="1:2" hidden="1">
       <c r="A336" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B336" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="337" spans="1:2" hidden="1">
       <c r="A337" t="s">
+        <v>564</v>
+      </c>
+      <c r="B337" t="s">
         <v>565</v>
-      </c>
-      <c r="B337" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="338" spans="1:2" hidden="1">
       <c r="A338" t="s">
+        <v>566</v>
+      </c>
+      <c r="B338" t="s">
         <v>567</v>
-      </c>
-      <c r="B338" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="339" spans="1:2" hidden="1">
       <c r="A339" t="s">
+        <v>568</v>
+      </c>
+      <c r="B339" t="s">
         <v>569</v>
-      </c>
-      <c r="B339" t="s">
-        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/DataDictionary.xlsx
+++ b/DataDictionary.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiyuanli/Desktop/homework1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shobh\Desktop\DSHS\homework1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6561F9-7AC1-4A4C-9FD2-60096D4E47A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881FBD45-9E79-4EE4-8DFB-47E0FCE70F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="1340" windowWidth="25380" windowHeight="13920" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13929" tabRatio="622" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aggre" sheetId="12" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Aggre!$A$1:$B$339</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Aggre!$A$1:$B$352</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="632">
   <si>
     <t>IdControlVital</t>
   </si>
@@ -1748,17 +1748,200 @@
   <si>
     <t xml:space="preserve">Available areas </t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrastornosConductaAlimetaria</t>
+  </si>
+  <si>
+    <t>Eating Disorders</t>
+  </si>
+  <si>
+    <t>EtapaDuelo</t>
+  </si>
+  <si>
+    <t>Grief Stage</t>
+  </si>
+  <si>
+    <t>EtapaDueloObservaciones</t>
+  </si>
+  <si>
+    <t>Grief Stage Observations</t>
+  </si>
+  <si>
+    <t>ApoyoSocialEmocional</t>
+  </si>
+  <si>
+    <t>Social Emotional Support</t>
+  </si>
+  <si>
+    <t>ApoyoSocialEmocionalObservaciones</t>
+  </si>
+  <si>
+    <t>Social Emotional Support Observations</t>
+  </si>
+  <si>
+    <t>ApoyoInstrumental</t>
+  </si>
+  <si>
+    <t>Instrumental Support</t>
+  </si>
+  <si>
+    <t>ApoyoInstrumentalObservaciones</t>
+  </si>
+  <si>
+    <t>Instrumental Support Observations</t>
+  </si>
+  <si>
+    <t>NivelAnsiedad</t>
+  </si>
+  <si>
+    <t>Anxiety Level</t>
+  </si>
+  <si>
+    <t>NivelAnsiedadObservaciones</t>
+  </si>
+  <si>
+    <t>Anxiety</t>
+  </si>
+  <si>
+    <t>TipoPersonalidad</t>
+  </si>
+  <si>
+    <t>Personality Type</t>
+  </si>
+  <si>
+    <t>TipoPersonalidadObservaciones</t>
+  </si>
+  <si>
+    <t>Personality Observation</t>
+  </si>
+  <si>
+    <t>ObservacionesProximaConsulta</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>AdherenciaTratamiento2</t>
+  </si>
+  <si>
+    <t>Psicoeducacion2</t>
+  </si>
+  <si>
+    <t>TreatmentAdherence2</t>
+  </si>
+  <si>
+    <t>PsychoEducation2</t>
+  </si>
+  <si>
+    <t>Estrategias2</t>
+  </si>
+  <si>
+    <t>Strategies2</t>
+  </si>
+  <si>
+    <t>EtapaDuelo2</t>
+  </si>
+  <si>
+    <t>GriefStage2</t>
+  </si>
+  <si>
+    <t>Psicoeducacion3</t>
+  </si>
+  <si>
+    <t>PsychoEducation3</t>
+  </si>
+  <si>
+    <t>Logros3</t>
+  </si>
+  <si>
+    <t>Achievements3</t>
+  </si>
+  <si>
+    <t>FactoresFracaso3</t>
+  </si>
+  <si>
+    <t>FailureFactors3</t>
+  </si>
+  <si>
+    <t>GriefStage3</t>
+  </si>
+  <si>
+    <t>CartaDiabete3</t>
+  </si>
+  <si>
+    <t>DiabetesMenu3</t>
+  </si>
+  <si>
+    <t>Psicoeducacion4</t>
+  </si>
+  <si>
+    <t>PsychoEducation4</t>
+  </si>
+  <si>
+    <t>Emociones4</t>
+  </si>
+  <si>
+    <t>Emotions4</t>
+  </si>
+  <si>
+    <t>RazonesBuenMargenAzucar4</t>
+  </si>
+  <si>
+    <t>Reasons to maintain good sugar level</t>
+  </si>
+  <si>
+    <t>Motivacion</t>
+  </si>
+  <si>
+    <t>Motivation Level</t>
+  </si>
+  <si>
+    <t>Autoestima4</t>
+  </si>
+  <si>
+    <t>SelfEsteem4</t>
+  </si>
+  <si>
+    <t>IdValoracionPodologicaSeguimiento</t>
+  </si>
+  <si>
+    <t>IdPodiatricAssessmentFollow-up</t>
+  </si>
+  <si>
+    <t>IdValoracionPodologica</t>
+  </si>
+  <si>
+    <t>IdPodiatricAssessment</t>
+  </si>
+  <si>
+    <t>TipoNeuropatia</t>
+  </si>
+  <si>
+    <t>Neuropatia</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Neuropathy</t>
+  </si>
+  <si>
+    <t>NeuropathyType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1766,13 +1949,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1789,10 +1972,15 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1815,7 +2003,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1827,9 +2015,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1856,7 +2047,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2176,17 +2367,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{292E9539-DDEC-46C1-BF61-190BF5D22634}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:B339"/>
+  <dimension ref="A1:B370"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B342" sqref="B342"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="B348" sqref="B348"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.05"/>
   <cols>
     <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="109.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2197,7 +2387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2205,7 +2395,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2213,7 +2403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2221,7 +2411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2229,7 +2419,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2237,7 +2427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2245,7 +2435,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2253,7 +2443,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2261,7 +2451,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -2269,7 +2459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2277,7 +2467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2285,7 +2475,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2293,7 +2483,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2301,7 +2491,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2309,7 +2499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2317,7 +2507,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -2325,7 +2515,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>1</v>
       </c>
@@ -2333,7 +2523,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -2341,7 +2531,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2349,7 +2539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2357,7 +2547,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2365,7 +2555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2373,7 +2563,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2381,7 +2571,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -2389,7 +2579,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -2397,7 +2587,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -2405,7 +2595,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -2413,7 +2603,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2421,7 +2611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -2429,7 +2619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2437,7 +2627,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -2445,7 +2635,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -2453,7 +2643,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2461,7 +2651,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2469,7 +2659,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2477,7 +2667,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2485,7 +2675,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2493,7 +2683,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2501,7 +2691,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2509,7 +2699,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2517,7 +2707,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2525,7 +2715,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2533,7 +2723,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2541,7 +2731,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2549,7 +2739,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2557,7 +2747,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2565,7 +2755,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2573,7 +2763,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2581,7 +2771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -2589,7 +2779,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>76</v>
       </c>
@@ -2597,7 +2787,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -2605,7 +2795,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>1</v>
       </c>
@@ -2613,7 +2803,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>77</v>
       </c>
@@ -2621,7 +2811,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -2629,7 +2819,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>78</v>
       </c>
@@ -2637,7 +2827,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>79</v>
       </c>
@@ -2653,7 +2843,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>81</v>
       </c>
@@ -2661,7 +2851,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>82</v>
       </c>
@@ -2669,7 +2859,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>88</v>
       </c>
@@ -2677,7 +2867,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>77</v>
       </c>
@@ -2685,7 +2875,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -2693,7 +2883,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>2</v>
       </c>
@@ -2701,7 +2891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>3</v>
       </c>
@@ -2717,7 +2907,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1">
+    <row r="67" spans="1:2">
       <c r="A67" s="3" t="s">
         <v>89</v>
       </c>
@@ -2725,7 +2915,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -2733,7 +2923,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>1</v>
       </c>
@@ -2741,7 +2931,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -2749,7 +2939,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>3</v>
       </c>
@@ -2757,7 +2947,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>96</v>
       </c>
@@ -2765,7 +2955,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>97</v>
       </c>
@@ -2773,7 +2963,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>98</v>
       </c>
@@ -2781,7 +2971,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>99</v>
       </c>
@@ -2789,7 +2979,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>100</v>
       </c>
@@ -2797,7 +2987,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>101</v>
       </c>
@@ -2805,7 +2995,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>102</v>
       </c>
@@ -2813,7 +3003,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>103</v>
       </c>
@@ -2821,7 +3011,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>104</v>
       </c>
@@ -2829,7 +3019,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>105</v>
       </c>
@@ -2837,7 +3027,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>106</v>
       </c>
@@ -2845,7 +3035,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>107</v>
       </c>
@@ -2853,7 +3043,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>108</v>
       </c>
@@ -2861,7 +3051,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>109</v>
       </c>
@@ -2869,7 +3059,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>110</v>
       </c>
@@ -2877,7 +3067,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>111</v>
       </c>
@@ -2885,7 +3075,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>112</v>
       </c>
@@ -2893,7 +3083,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -2901,7 +3091,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>114</v>
       </c>
@@ -2909,7 +3099,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>115</v>
       </c>
@@ -2917,7 +3107,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>116</v>
       </c>
@@ -2925,7 +3115,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>117</v>
       </c>
@@ -2933,7 +3123,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>118</v>
       </c>
@@ -2941,7 +3131,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>119</v>
       </c>
@@ -2949,7 +3139,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>120</v>
       </c>
@@ -2957,7 +3147,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>121</v>
       </c>
@@ -2965,7 +3155,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>122</v>
       </c>
@@ -2973,7 +3163,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>123</v>
       </c>
@@ -2981,7 +3171,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>124</v>
       </c>
@@ -2989,7 +3179,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>125</v>
       </c>
@@ -2997,7 +3187,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>126</v>
       </c>
@@ -3005,7 +3195,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>127</v>
       </c>
@@ -3013,7 +3203,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>128</v>
       </c>
@@ -3021,7 +3211,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>129</v>
       </c>
@@ -3029,7 +3219,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>130</v>
       </c>
@@ -3037,7 +3227,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>131</v>
       </c>
@@ -3045,7 +3235,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>132</v>
       </c>
@@ -3053,7 +3243,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>133</v>
       </c>
@@ -3061,7 +3251,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>134</v>
       </c>
@@ -3069,7 +3259,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>135</v>
       </c>
@@ -3077,7 +3267,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>136</v>
       </c>
@@ -3085,7 +3275,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>137</v>
       </c>
@@ -3093,7 +3283,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>138</v>
       </c>
@@ -3101,7 +3291,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>139</v>
       </c>
@@ -3109,7 +3299,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>140</v>
       </c>
@@ -3117,7 +3307,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>141</v>
       </c>
@@ -3125,7 +3315,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>142</v>
       </c>
@@ -3133,7 +3323,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="119" spans="1:2" hidden="1">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>143</v>
       </c>
@@ -3141,7 +3331,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>144</v>
       </c>
@@ -3149,7 +3339,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>145</v>
       </c>
@@ -3157,7 +3347,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>146</v>
       </c>
@@ -3165,7 +3355,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="123" spans="1:2" hidden="1">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>147</v>
       </c>
@@ -3173,7 +3363,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="124" spans="1:2" hidden="1">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>148</v>
       </c>
@@ -3181,7 +3371,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>149</v>
       </c>
@@ -3189,7 +3379,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>150</v>
       </c>
@@ -3197,7 +3387,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>151</v>
       </c>
@@ -3205,7 +3395,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>152</v>
       </c>
@@ -3213,7 +3403,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>153</v>
       </c>
@@ -3221,7 +3411,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>154</v>
       </c>
@@ -3229,7 +3419,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>155</v>
       </c>
@@ -3237,7 +3427,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>156</v>
       </c>
@@ -3245,7 +3435,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>157</v>
       </c>
@@ -3253,7 +3443,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="134" spans="1:2" hidden="1">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>158</v>
       </c>
@@ -3261,7 +3451,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>159</v>
       </c>
@@ -3269,7 +3459,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>160</v>
       </c>
@@ -3277,7 +3467,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>161</v>
       </c>
@@ -3285,7 +3475,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>162</v>
       </c>
@@ -3293,7 +3483,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>163</v>
       </c>
@@ -3301,7 +3491,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>164</v>
       </c>
@@ -3309,7 +3499,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>165</v>
       </c>
@@ -3322,7 +3512,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>166</v>
       </c>
@@ -3330,7 +3520,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>167</v>
       </c>
@@ -3338,7 +3528,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>168</v>
       </c>
@@ -3346,7 +3536,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>169</v>
       </c>
@@ -3354,7 +3544,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -3362,7 +3552,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>6</v>
       </c>
@@ -3370,7 +3560,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>7</v>
       </c>
@@ -3378,7 +3568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>8</v>
       </c>
@@ -3386,7 +3576,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>9</v>
       </c>
@@ -3394,7 +3584,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -3402,7 +3592,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>170</v>
       </c>
@@ -3410,7 +3600,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>171</v>
       </c>
@@ -3418,7 +3608,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>172</v>
       </c>
@@ -3426,7 +3616,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>173</v>
       </c>
@@ -3434,7 +3624,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="157" spans="1:2" hidden="1">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>174</v>
       </c>
@@ -3442,7 +3632,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>175</v>
       </c>
@@ -3450,7 +3640,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>176</v>
       </c>
@@ -3458,7 +3648,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>177</v>
       </c>
@@ -3466,7 +3656,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="161" spans="1:2" hidden="1">
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
         <v>178</v>
       </c>
@@ -3474,7 +3664,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="162" spans="1:2" hidden="1">
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
         <v>179</v>
       </c>
@@ -3482,7 +3672,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1">
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
         <v>180</v>
       </c>
@@ -3490,7 +3680,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="164" spans="1:2" hidden="1">
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
         <v>181</v>
       </c>
@@ -3498,7 +3688,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="165" spans="1:2" hidden="1">
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
         <v>182</v>
       </c>
@@ -3506,7 +3696,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1">
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
         <v>183</v>
       </c>
@@ -3514,7 +3704,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1">
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
         <v>184</v>
       </c>
@@ -3522,7 +3712,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1">
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
         <v>185</v>
       </c>
@@ -3530,7 +3720,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1">
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
         <v>186</v>
       </c>
@@ -3538,7 +3728,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1">
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
         <v>187</v>
       </c>
@@ -3546,7 +3736,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1">
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
         <v>188</v>
       </c>
@@ -3554,7 +3744,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1">
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
         <v>34</v>
       </c>
@@ -3562,7 +3752,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1">
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
         <v>35</v>
       </c>
@@ -3570,7 +3760,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="174" spans="1:2" hidden="1">
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
         <v>11</v>
       </c>
@@ -3578,7 +3768,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="175" spans="1:2" hidden="1">
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
         <v>12</v>
       </c>
@@ -3586,7 +3776,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="176" spans="1:2" hidden="1">
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
         <v>13</v>
       </c>
@@ -3594,7 +3784,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="177" spans="1:2" hidden="1">
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
         <v>36</v>
       </c>
@@ -3602,7 +3792,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="178" spans="1:2" hidden="1">
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
         <v>38</v>
       </c>
@@ -3610,7 +3800,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="179" spans="1:2" hidden="1">
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
         <v>39</v>
       </c>
@@ -3618,7 +3808,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="180" spans="1:2" hidden="1">
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
         <v>189</v>
       </c>
@@ -3626,7 +3816,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="181" spans="1:2" hidden="1">
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
         <v>190</v>
       </c>
@@ -3634,7 +3824,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="182" spans="1:2" hidden="1">
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
         <v>191</v>
       </c>
@@ -3642,7 +3832,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="183" spans="1:2" hidden="1">
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
         <v>192</v>
       </c>
@@ -3650,7 +3840,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="184" spans="1:2" hidden="1">
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
         <v>193</v>
       </c>
@@ -3658,7 +3848,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="185" spans="1:2" hidden="1">
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
         <v>194</v>
       </c>
@@ -3666,7 +3856,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="186" spans="1:2" hidden="1">
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
         <v>1</v>
       </c>
@@ -3674,7 +3864,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="187" spans="1:2" hidden="1">
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
         <v>11</v>
       </c>
@@ -3682,7 +3872,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="188" spans="1:2" hidden="1">
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
         <v>2</v>
       </c>
@@ -3690,7 +3880,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="189" spans="1:2" hidden="1">
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
         <v>3</v>
       </c>
@@ -3698,7 +3888,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="190" spans="1:2" hidden="1">
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
         <v>195</v>
       </c>
@@ -3706,7 +3896,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="191" spans="1:2" hidden="1">
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
         <v>196</v>
       </c>
@@ -3714,7 +3904,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="192" spans="1:2" hidden="1">
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
         <v>197</v>
       </c>
@@ -3722,7 +3912,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="193" spans="1:2" hidden="1">
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
         <v>198</v>
       </c>
@@ -3730,7 +3920,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="194" spans="1:2" hidden="1">
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
         <v>199</v>
       </c>
@@ -3738,7 +3928,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="195" spans="1:2" hidden="1">
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
         <v>200</v>
       </c>
@@ -3746,7 +3936,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="196" spans="1:2" hidden="1">
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
         <v>201</v>
       </c>
@@ -3754,7 +3944,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="197" spans="1:2" hidden="1">
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
         <v>202</v>
       </c>
@@ -3762,7 +3952,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="198" spans="1:2" hidden="1">
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
         <v>203</v>
       </c>
@@ -3770,7 +3960,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="199" spans="1:2" hidden="1">
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
         <v>204</v>
       </c>
@@ -3778,7 +3968,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="200" spans="1:2" hidden="1">
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
         <v>205</v>
       </c>
@@ -3786,7 +3976,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="201" spans="1:2" hidden="1">
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
         <v>206</v>
       </c>
@@ -3794,7 +3984,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="202" spans="1:2" hidden="1">
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
         <v>207</v>
       </c>
@@ -3802,7 +3992,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="203" spans="1:2" hidden="1">
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
         <v>208</v>
       </c>
@@ -3810,7 +4000,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="204" spans="1:2" hidden="1">
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
         <v>209</v>
       </c>
@@ -3818,7 +4008,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="205" spans="1:2" hidden="1">
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
         <v>210</v>
       </c>
@@ -3826,7 +4016,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="206" spans="1:2" hidden="1">
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
         <v>211</v>
       </c>
@@ -3834,7 +4024,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="207" spans="1:2" hidden="1">
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
         <v>212</v>
       </c>
@@ -3842,7 +4032,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="208" spans="1:2" hidden="1">
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
         <v>213</v>
       </c>
@@ -3850,7 +4040,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="209" spans="1:2" hidden="1">
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
         <v>214</v>
       </c>
@@ -3858,7 +4048,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="210" spans="1:2" hidden="1">
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
         <v>215</v>
       </c>
@@ -3866,7 +4056,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="211" spans="1:2" hidden="1">
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
         <v>216</v>
       </c>
@@ -3874,7 +4064,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="212" spans="1:2" hidden="1">
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
         <v>217</v>
       </c>
@@ -3882,7 +4072,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="213" spans="1:2" hidden="1">
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
         <v>218</v>
       </c>
@@ -3890,7 +4080,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="214" spans="1:2" hidden="1">
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
         <v>219</v>
       </c>
@@ -3898,7 +4088,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="215" spans="1:2" hidden="1">
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
         <v>220</v>
       </c>
@@ -3906,7 +4096,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="216" spans="1:2" hidden="1">
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
         <v>221</v>
       </c>
@@ -3914,7 +4104,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="217" spans="1:2" hidden="1">
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
         <v>222</v>
       </c>
@@ -3922,7 +4112,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="218" spans="1:2" hidden="1">
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
         <v>223</v>
       </c>
@@ -3930,7 +4120,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="219" spans="1:2" hidden="1">
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
         <v>224</v>
       </c>
@@ -3938,7 +4128,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="220" spans="1:2" hidden="1">
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
         <v>225</v>
       </c>
@@ -3946,7 +4136,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="221" spans="1:2" hidden="1">
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
         <v>226</v>
       </c>
@@ -3954,7 +4144,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="222" spans="1:2" hidden="1">
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
         <v>227</v>
       </c>
@@ -3962,7 +4152,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="223" spans="1:2" hidden="1">
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
         <v>228</v>
       </c>
@@ -3970,7 +4160,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="224" spans="1:2" hidden="1">
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
         <v>229</v>
       </c>
@@ -3978,7 +4168,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="225" spans="1:2" hidden="1">
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
         <v>230</v>
       </c>
@@ -3986,7 +4176,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="226" spans="1:2" hidden="1">
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
         <v>231</v>
       </c>
@@ -3994,7 +4184,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="227" spans="1:2" hidden="1">
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
         <v>232</v>
       </c>
@@ -4002,7 +4192,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="228" spans="1:2" hidden="1">
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
         <v>233</v>
       </c>
@@ -4010,7 +4200,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="229" spans="1:2" hidden="1">
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
         <v>234</v>
       </c>
@@ -4018,7 +4208,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="230" spans="1:2" hidden="1">
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
         <v>235</v>
       </c>
@@ -4026,7 +4216,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="231" spans="1:2" hidden="1">
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
         <v>236</v>
       </c>
@@ -4034,7 +4224,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="232" spans="1:2" hidden="1">
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
         <v>237</v>
       </c>
@@ -4042,7 +4232,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="233" spans="1:2" hidden="1">
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
         <v>238</v>
       </c>
@@ -4050,7 +4240,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="234" spans="1:2" hidden="1">
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
         <v>239</v>
       </c>
@@ -4058,7 +4248,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="235" spans="1:2" hidden="1">
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
         <v>240</v>
       </c>
@@ -4066,7 +4256,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="236" spans="1:2" hidden="1">
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
         <v>241</v>
       </c>
@@ -4074,7 +4264,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="237" spans="1:2" hidden="1">
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
         <v>242</v>
       </c>
@@ -4082,7 +4272,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="238" spans="1:2" hidden="1">
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
         <v>243</v>
       </c>
@@ -4090,7 +4280,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="239" spans="1:2" hidden="1">
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
         <v>244</v>
       </c>
@@ -4098,7 +4288,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="240" spans="1:2" hidden="1">
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
         <v>245</v>
       </c>
@@ -4106,7 +4296,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="241" spans="1:2" hidden="1">
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
         <v>246</v>
       </c>
@@ -4114,7 +4304,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="242" spans="1:2" hidden="1">
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
         <v>247</v>
       </c>
@@ -4122,7 +4312,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="243" spans="1:2" hidden="1">
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
         <v>248</v>
       </c>
@@ -4130,7 +4320,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="244" spans="1:2" hidden="1">
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
         <v>249</v>
       </c>
@@ -4138,7 +4328,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="245" spans="1:2" hidden="1">
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
         <v>250</v>
       </c>
@@ -4146,7 +4336,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="246" spans="1:2" hidden="1">
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
         <v>251</v>
       </c>
@@ -4154,7 +4344,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="247" spans="1:2" hidden="1">
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
         <v>252</v>
       </c>
@@ -4162,7 +4352,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="248" spans="1:2" hidden="1">
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
         <v>95</v>
       </c>
@@ -4170,7 +4360,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="249" spans="1:2" hidden="1">
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
         <v>253</v>
       </c>
@@ -4178,7 +4368,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="250" spans="1:2" hidden="1">
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
         <v>1</v>
       </c>
@@ -4186,7 +4376,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="251" spans="1:2" hidden="1">
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
         <v>415</v>
       </c>
@@ -4194,7 +4384,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="252" spans="1:2" hidden="1">
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
         <v>2</v>
       </c>
@@ -4202,7 +4392,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="253" spans="1:2" hidden="1">
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
         <v>3</v>
       </c>
@@ -4210,7 +4400,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="254" spans="1:2" hidden="1">
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
         <v>416</v>
       </c>
@@ -4218,7 +4408,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="255" spans="1:2" hidden="1">
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
         <v>417</v>
       </c>
@@ -4226,7 +4416,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="256" spans="1:2" hidden="1">
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
         <v>418</v>
       </c>
@@ -4234,7 +4424,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="257" spans="1:2" hidden="1">
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
         <v>419</v>
       </c>
@@ -4242,7 +4432,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="258" spans="1:2" hidden="1">
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
         <v>11</v>
       </c>
@@ -4250,7 +4440,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="259" spans="1:2" hidden="1">
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
         <v>420</v>
       </c>
@@ -4258,7 +4448,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="260" spans="1:2" hidden="1">
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
         <v>421</v>
       </c>
@@ -4266,7 +4456,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="261" spans="1:2" hidden="1">
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
         <v>422</v>
       </c>
@@ -4274,7 +4464,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="262" spans="1:2" hidden="1">
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
         <v>423</v>
       </c>
@@ -4282,7 +4472,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="263" spans="1:2" hidden="1">
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
         <v>424</v>
       </c>
@@ -4290,7 +4480,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="264" spans="1:2" hidden="1">
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
         <v>425</v>
       </c>
@@ -4298,7 +4488,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="265" spans="1:2" hidden="1">
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
         <v>426</v>
       </c>
@@ -4306,7 +4496,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="266" spans="1:2" hidden="1">
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
         <v>427</v>
       </c>
@@ -4314,7 +4504,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="267" spans="1:2" hidden="1">
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
         <v>428</v>
       </c>
@@ -4322,7 +4512,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="268" spans="1:2" hidden="1">
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
         <v>429</v>
       </c>
@@ -4330,7 +4520,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="269" spans="1:2" hidden="1">
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
         <v>430</v>
       </c>
@@ -4338,7 +4528,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="270" spans="1:2" hidden="1">
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
         <v>431</v>
       </c>
@@ -4346,7 +4536,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="271" spans="1:2" hidden="1">
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
         <v>432</v>
       </c>
@@ -4354,7 +4544,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="272" spans="1:2" hidden="1">
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
         <v>433</v>
       </c>
@@ -4362,7 +4552,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="273" spans="1:2" hidden="1">
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
         <v>434</v>
       </c>
@@ -4370,7 +4560,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="274" spans="1:2" hidden="1">
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
         <v>435</v>
       </c>
@@ -4378,7 +4568,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="275" spans="1:2" hidden="1">
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
         <v>436</v>
       </c>
@@ -4386,7 +4576,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="276" spans="1:2" hidden="1">
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
         <v>437</v>
       </c>
@@ -4394,7 +4584,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="277" spans="1:2" hidden="1">
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
         <v>438</v>
       </c>
@@ -4402,7 +4592,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="278" spans="1:2" hidden="1">
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
         <v>439</v>
       </c>
@@ -4410,7 +4600,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="279" spans="1:2" hidden="1">
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
         <v>440</v>
       </c>
@@ -4418,7 +4608,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="280" spans="1:2" hidden="1">
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
         <v>441</v>
       </c>
@@ -4426,7 +4616,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="281" spans="1:2" hidden="1">
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
         <v>442</v>
       </c>
@@ -4434,7 +4624,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="282" spans="1:2" hidden="1">
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
         <v>443</v>
       </c>
@@ -4442,7 +4632,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="283" spans="1:2" hidden="1">
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
         <v>444</v>
       </c>
@@ -4450,7 +4640,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="284" spans="1:2" hidden="1">
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
         <v>445</v>
       </c>
@@ -4458,7 +4648,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="285" spans="1:2" hidden="1">
+    <row r="285" spans="1:2">
       <c r="A285" t="s">
         <v>446</v>
       </c>
@@ -4466,7 +4656,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="286" spans="1:2" hidden="1">
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
         <v>447</v>
       </c>
@@ -4474,7 +4664,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="287" spans="1:2" hidden="1">
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
         <v>448</v>
       </c>
@@ -4482,7 +4672,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="288" spans="1:2" hidden="1">
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
         <v>449</v>
       </c>
@@ -4490,7 +4680,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="289" spans="1:2" hidden="1">
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
         <v>450</v>
       </c>
@@ -4498,7 +4688,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="290" spans="1:2" hidden="1">
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
         <v>451</v>
       </c>
@@ -4506,7 +4696,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="291" spans="1:2" hidden="1">
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
         <v>452</v>
       </c>
@@ -4514,7 +4704,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="292" spans="1:2" hidden="1">
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
         <v>453</v>
       </c>
@@ -4522,7 +4712,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="293" spans="1:2" hidden="1">
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
         <v>454</v>
       </c>
@@ -4530,7 +4720,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="294" spans="1:2" hidden="1">
+    <row r="294" spans="1:2">
       <c r="A294" t="s">
         <v>455</v>
       </c>
@@ -4538,7 +4728,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="295" spans="1:2" hidden="1">
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
         <v>456</v>
       </c>
@@ -4546,7 +4736,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="296" spans="1:2" hidden="1">
+    <row r="296" spans="1:2">
       <c r="A296" t="s">
         <v>457</v>
       </c>
@@ -4554,7 +4744,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="297" spans="1:2" hidden="1">
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
         <v>458</v>
       </c>
@@ -4562,7 +4752,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="298" spans="1:2" hidden="1">
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
         <v>95</v>
       </c>
@@ -4570,7 +4760,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="15" hidden="1">
+    <row r="299" spans="1:2">
       <c r="A299" t="s">
         <v>459</v>
       </c>
@@ -4578,7 +4768,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="300" spans="1:2" hidden="1">
+    <row r="300" spans="1:2">
       <c r="A300" t="s">
         <v>460</v>
       </c>
@@ -4586,7 +4776,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="301" spans="1:2" hidden="1">
+    <row r="301" spans="1:2">
       <c r="A301" t="s">
         <v>461</v>
       </c>
@@ -4594,7 +4784,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="302" spans="1:2" hidden="1">
+    <row r="302" spans="1:2">
       <c r="A302" t="s">
         <v>498</v>
       </c>
@@ -4602,7 +4792,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="303" spans="1:2" hidden="1">
+    <row r="303" spans="1:2">
       <c r="A303" t="s">
         <v>500</v>
       </c>
@@ -4610,7 +4800,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="304" spans="1:2" hidden="1">
+    <row r="304" spans="1:2">
       <c r="A304" t="s">
         <v>502</v>
       </c>
@@ -4618,7 +4808,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="305" spans="1:2" hidden="1">
+    <row r="305" spans="1:2">
       <c r="A305" t="s">
         <v>504</v>
       </c>
@@ -4626,7 +4816,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="306" spans="1:2" hidden="1">
+    <row r="306" spans="1:2">
       <c r="A306" t="s">
         <v>507</v>
       </c>
@@ -4634,7 +4824,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="307" spans="1:2" hidden="1">
+    <row r="307" spans="1:2">
       <c r="A307" t="s">
         <v>509</v>
       </c>
@@ -4642,7 +4832,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="308" spans="1:2" hidden="1">
+    <row r="308" spans="1:2">
       <c r="A308" t="s">
         <v>511</v>
       </c>
@@ -4650,7 +4840,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="309" spans="1:2" hidden="1">
+    <row r="309" spans="1:2">
       <c r="A309" t="s">
         <v>512</v>
       </c>
@@ -4658,7 +4848,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="310" spans="1:2" hidden="1">
+    <row r="310" spans="1:2">
       <c r="A310" t="s">
         <v>514</v>
       </c>
@@ -4666,7 +4856,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="311" spans="1:2" hidden="1">
+    <row r="311" spans="1:2">
       <c r="A311" t="s">
         <v>516</v>
       </c>
@@ -4674,7 +4864,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="312" spans="1:2" hidden="1">
+    <row r="312" spans="1:2">
       <c r="A312" t="s">
         <v>519</v>
       </c>
@@ -4682,7 +4872,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="313" spans="1:2" hidden="1">
+    <row r="313" spans="1:2">
       <c r="A313" t="s">
         <v>520</v>
       </c>
@@ -4690,7 +4880,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="314" spans="1:2" hidden="1">
+    <row r="314" spans="1:2">
       <c r="A314" t="s">
         <v>522</v>
       </c>
@@ -4698,7 +4888,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="315" spans="1:2" hidden="1">
+    <row r="315" spans="1:2">
       <c r="A315" t="s">
         <v>524</v>
       </c>
@@ -4706,7 +4896,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="316" spans="1:2" hidden="1">
+    <row r="316" spans="1:2">
       <c r="A316" t="s">
         <v>526</v>
       </c>
@@ -4714,7 +4904,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="317" spans="1:2" hidden="1">
+    <row r="317" spans="1:2">
       <c r="A317" t="s">
         <v>529</v>
       </c>
@@ -4722,7 +4912,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="318" spans="1:2" hidden="1">
+    <row r="318" spans="1:2">
       <c r="A318" t="s">
         <v>530</v>
       </c>
@@ -4730,7 +4920,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="319" spans="1:2" hidden="1">
+    <row r="319" spans="1:2">
       <c r="A319" t="s">
         <v>532</v>
       </c>
@@ -4738,7 +4928,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="320" spans="1:2" hidden="1">
+    <row r="320" spans="1:2">
       <c r="A320" t="s">
         <v>534</v>
       </c>
@@ -4746,7 +4936,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="321" spans="1:2" hidden="1">
+    <row r="321" spans="1:2">
       <c r="A321" t="s">
         <v>536</v>
       </c>
@@ -4754,7 +4944,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="322" spans="1:2" hidden="1">
+    <row r="322" spans="1:2">
       <c r="A322" t="s">
         <v>538</v>
       </c>
@@ -4762,7 +4952,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="323" spans="1:2" hidden="1">
+    <row r="323" spans="1:2">
       <c r="A323" t="s">
         <v>540</v>
       </c>
@@ -4770,7 +4960,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="324" spans="1:2" hidden="1">
+    <row r="324" spans="1:2">
       <c r="A324" t="s">
         <v>542</v>
       </c>
@@ -4778,7 +4968,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="325" spans="1:2" hidden="1">
+    <row r="325" spans="1:2">
       <c r="A325" t="s">
         <v>544</v>
       </c>
@@ -4786,7 +4976,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="326" spans="1:2" hidden="1">
+    <row r="326" spans="1:2">
       <c r="A326" t="s">
         <v>546</v>
       </c>
@@ -4794,7 +4984,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="327" spans="1:2" hidden="1">
+    <row r="327" spans="1:2">
       <c r="A327" t="s">
         <v>548</v>
       </c>
@@ -4802,7 +4992,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="328" spans="1:2" hidden="1">
+    <row r="328" spans="1:2">
       <c r="A328" t="s">
         <v>550</v>
       </c>
@@ -4810,7 +5000,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="16" hidden="1">
+    <row r="329" spans="1:2">
       <c r="A329" s="6" t="s">
         <v>552</v>
       </c>
@@ -4818,7 +5008,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="330" spans="1:2" hidden="1">
+    <row r="330" spans="1:2">
       <c r="A330" t="s">
         <v>554</v>
       </c>
@@ -4826,7 +5016,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="331" spans="1:2" hidden="1">
+    <row r="331" spans="1:2">
       <c r="A331" t="s">
         <v>555</v>
       </c>
@@ -4834,7 +5024,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="332" spans="1:2" hidden="1">
+    <row r="332" spans="1:2">
       <c r="A332" t="s">
         <v>557</v>
       </c>
@@ -4842,7 +5032,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="333" spans="1:2" hidden="1">
+    <row r="333" spans="1:2">
       <c r="A333" t="s">
         <v>558</v>
       </c>
@@ -4850,7 +5040,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="334" spans="1:2" hidden="1">
+    <row r="334" spans="1:2">
       <c r="A334" t="s">
         <v>560</v>
       </c>
@@ -4858,7 +5048,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="335" spans="1:2" hidden="1">
+    <row r="335" spans="1:2">
       <c r="A335" t="s">
         <v>562</v>
       </c>
@@ -4866,7 +5056,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="336" spans="1:2" hidden="1">
+    <row r="336" spans="1:2">
       <c r="A336" t="s">
         <v>563</v>
       </c>
@@ -4874,7 +5064,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="337" spans="1:2" hidden="1">
+    <row r="337" spans="1:2">
       <c r="A337" t="s">
         <v>564</v>
       </c>
@@ -4882,7 +5072,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="338" spans="1:2" hidden="1">
+    <row r="338" spans="1:2">
       <c r="A338" t="s">
         <v>566</v>
       </c>
@@ -4890,7 +5080,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="339" spans="1:2" hidden="1">
+    <row r="339" spans="1:2">
       <c r="A339" t="s">
         <v>568</v>
       </c>
@@ -4898,19 +5088,260 @@
         <v>569</v>
       </c>
     </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B340" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B341" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B342" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>577</v>
+      </c>
+      <c r="B343" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B344" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>581</v>
+      </c>
+      <c r="B345" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B346" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="B347" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B348" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="B349" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>591</v>
+      </c>
+      <c r="B350" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" t="s">
+        <v>593</v>
+      </c>
+      <c r="B351" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>595</v>
+      </c>
+      <c r="B352" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>596</v>
+      </c>
+      <c r="B353" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>599</v>
+      </c>
+      <c r="B354" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>601</v>
+      </c>
+      <c r="B355" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>603</v>
+      </c>
+      <c r="B356" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>605</v>
+      </c>
+      <c r="B357" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>607</v>
+      </c>
+      <c r="B358" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>601</v>
+      </c>
+      <c r="B359" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>610</v>
+      </c>
+      <c r="B360" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>612</v>
+      </c>
+      <c r="B361" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>614</v>
+      </c>
+      <c r="B362" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>616</v>
+      </c>
+      <c r="B363" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>618</v>
+      </c>
+      <c r="B364" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>620</v>
+      </c>
+      <c r="B365" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B366" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="B367" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="B368" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B369" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B370" t="s">
+        <v>629</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B339" xr:uid="{292E9539-DDEC-46C1-BF61-190BF5D22634}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="AGOCesareas"/>
-        <filter val="Area"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="A332:A339">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>